--- a/Tests/Validation/Wheat/Lincoln2024.xlsx
+++ b/Tests/Validation/Wheat/Lincoln2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\ApsimX\Tests\Validation\Wheat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E751BA1-B680-4DA6-8248-7D835187F7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F65A168-1788-47AF-A491-0774E62ED42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,28 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$A$1:$I$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="33">
   <si>
     <t>SimulationName</t>
   </si>
@@ -114,6 +125,21 @@
   <si>
     <t>Lincoln2024SD20MarN150</t>
   </si>
+  <si>
+    <t>Z30</t>
+  </si>
+  <si>
+    <t>Z32</t>
+  </si>
+  <si>
+    <t>Wheat.Phenology.HaunStage</t>
+  </si>
+  <si>
+    <t>Wheat.Leaf.Height</t>
+  </si>
+  <si>
+    <t>NDVIModel.Script.NDVI</t>
+  </si>
 </sst>
 </file>
 
@@ -148,12 +174,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:L486"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="G299" workbookViewId="0">
+      <selection activeCell="K393" sqref="K393:K396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,9 +532,12 @@
     <col min="7" max="7" width="25.21875" customWidth="1"/>
     <col min="8" max="8" width="23.77734375" customWidth="1"/>
     <col min="9" max="9" width="36.21875" customWidth="1"/>
+    <col min="10" max="10" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -535,8 +565,17 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -562,7 +601,7 @@
         <v>0.35909079952005718</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -588,7 +627,7 @@
         <v>0.89892772357892115</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -614,7 +653,7 @@
         <v>1.6765966370935705</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -640,7 +679,7 @@
         <v>0.3386406033549702</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -666,7 +705,7 @@
         <v>0.7504515311907114</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -692,7 +731,7 @@
         <v>2.0383290057321877</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -718,7 +757,7 @@
         <v>0.30479700200055476</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -744,7 +783,7 @@
         <v>0.76674451968529034</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -770,7 +809,7 @@
         <v>1.6213867797806538</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -796,7 +835,7 @@
         <v>0.50783224381801451</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -822,7 +861,7 @@
         <v>0.89757096717562657</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -848,7 +887,7 @@
         <v>2.0684248191608323</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -874,7 +913,7 @@
         <v>0.16105492989691042</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -900,7 +939,7 @@
         <v>0.18053497114120928</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -926,7 +965,7 @@
         <v>0.14372319756550278</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -950,6 +989,6042 @@
       </c>
       <c r="H17">
         <v>0.16403667198524149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45496</v>
+      </c>
+      <c r="C19" s="3">
+        <v>164.04349410668257</v>
+      </c>
+      <c r="D19" s="3">
+        <v>108.84501011253617</v>
+      </c>
+      <c r="E19" s="3">
+        <v>28.569977042053502</v>
+      </c>
+      <c r="F19" s="3">
+        <v>26.62850695209287</v>
+      </c>
+      <c r="G19" s="3">
+        <v>18703.067023901898</v>
+      </c>
+      <c r="H19" s="3">
+        <v>2.0357315631771971</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45496</v>
+      </c>
+      <c r="C20" s="3">
+        <v>214.23668510924531</v>
+      </c>
+      <c r="D20" s="3">
+        <v>152.2183771569153</v>
+      </c>
+      <c r="E20" s="3">
+        <v>39.801371851808277</v>
+      </c>
+      <c r="F20" s="3">
+        <v>22.21693610052175</v>
+      </c>
+      <c r="G20" s="3">
+        <v>19489.523223770266</v>
+      </c>
+      <c r="H20" s="3">
+        <v>2.9575849550214643</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45496</v>
+      </c>
+      <c r="C21" s="3">
+        <v>195.7913290885852</v>
+      </c>
+      <c r="D21" s="3">
+        <v>135.85178984725755</v>
+      </c>
+      <c r="E21" s="3">
+        <v>36.492989047817971</v>
+      </c>
+      <c r="F21" s="3">
+        <v>23.446550193509697</v>
+      </c>
+      <c r="G21" s="3">
+        <v>17973.026858926634</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2.4399042256776688</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45496</v>
+      </c>
+      <c r="C22" s="3">
+        <v>211.15477091715485</v>
+      </c>
+      <c r="D22" s="3">
+        <v>152.00160965818574</v>
+      </c>
+      <c r="E22" s="3">
+        <v>40.453860781514948</v>
+      </c>
+      <c r="F22" s="3">
+        <v>18.699300477454198</v>
+      </c>
+      <c r="G22" s="3">
+        <v>19655.631030543082</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3.0013057571623656</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45496</v>
+      </c>
+      <c r="C23" s="3">
+        <v>18.450020239037549</v>
+      </c>
+      <c r="D23" s="3">
+        <v>16.936461207849145</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1.4163304715336411</v>
+      </c>
+      <c r="F23" s="3">
+        <v>9.7228559654763125E-2</v>
+      </c>
+      <c r="G23" s="3">
+        <v>20953.301301645824</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.35378599432664837</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45496</v>
+      </c>
+      <c r="C24" s="3">
+        <v>21.33410887964143</v>
+      </c>
+      <c r="D24" s="3">
+        <v>19.849929017443323</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1.4841798621981022</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>20726.151695787164</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.40572215678556728</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45496</v>
+      </c>
+      <c r="C25" s="3">
+        <v>18.046706897647276</v>
+      </c>
+      <c r="D25" s="3">
+        <v>16.693119606754561</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1.3420115034101885</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1.1575787482523234E-2</v>
+      </c>
+      <c r="G25" s="3">
+        <v>20116.009010053775</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.3348219679850658</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45496</v>
+      </c>
+      <c r="C26" s="3">
+        <v>22.76201501225022</v>
+      </c>
+      <c r="D26" s="3">
+        <v>21.013819162688019</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1.7481958495621985</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>20361.964718999548</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.42705517447630859</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45509</v>
+      </c>
+      <c r="C27" s="3">
+        <v>238.90869615916532</v>
+      </c>
+      <c r="D27" s="3">
+        <v>150.54729709320435</v>
+      </c>
+      <c r="E27" s="3">
+        <v>58.961988126780717</v>
+      </c>
+      <c r="F27" s="3">
+        <v>29.399410939180235</v>
+      </c>
+      <c r="G27" s="3">
+        <v>19763.23685074324</v>
+      </c>
+      <c r="H27" s="3">
+        <v>2.98303144058313</v>
+      </c>
+      <c r="I27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45509</v>
+      </c>
+      <c r="C28" s="3">
+        <v>277.48331349011852</v>
+      </c>
+      <c r="D28" s="3">
+        <v>173.17881236952525</v>
+      </c>
+      <c r="E28" s="3">
+        <v>77.351570036210248</v>
+      </c>
+      <c r="F28" s="3">
+        <v>26.952931084383</v>
+      </c>
+      <c r="G28" s="3">
+        <v>20533.439140497474</v>
+      </c>
+      <c r="H28" s="3">
+        <v>3.5544562407828533</v>
+      </c>
+      <c r="I28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45509</v>
+      </c>
+      <c r="C29" s="3">
+        <v>289.15639157337245</v>
+      </c>
+      <c r="D29" s="3">
+        <v>195.52914324722326</v>
+      </c>
+      <c r="E29" s="3">
+        <v>72.106548006778027</v>
+      </c>
+      <c r="F29" s="3">
+        <v>21.520700319371194</v>
+      </c>
+      <c r="G29" s="3">
+        <v>19433.020891282849</v>
+      </c>
+      <c r="H29" s="3">
+        <v>3.8059655351657007</v>
+      </c>
+      <c r="I29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45509</v>
+      </c>
+      <c r="C30" s="3">
+        <v>296.0753419893943</v>
+      </c>
+      <c r="D30" s="3">
+        <v>189.38665214639695</v>
+      </c>
+      <c r="E30" s="3">
+        <v>76.609578761182277</v>
+      </c>
+      <c r="F30" s="3">
+        <v>30.07911108181511</v>
+      </c>
+      <c r="G30" s="3">
+        <v>22232.096363801276</v>
+      </c>
+      <c r="H30" s="3">
+        <v>4.2214094557525428</v>
+      </c>
+      <c r="I30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45517</v>
+      </c>
+      <c r="C31" s="3">
+        <v>62.106178615195347</v>
+      </c>
+      <c r="D31" s="3">
+        <v>49.446211883747111</v>
+      </c>
+      <c r="E31" s="3">
+        <v>9.9203352719794111</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2.7396314594688267</v>
+      </c>
+      <c r="G31" s="3">
+        <v>16734.969490969332</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.8275639434291393</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45517</v>
+      </c>
+      <c r="C32" s="3">
+        <v>73.698418638369844</v>
+      </c>
+      <c r="D32" s="3">
+        <v>59.31604137072177</v>
+      </c>
+      <c r="E32" s="3">
+        <v>10.591064079977194</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3.7913131876708706</v>
+      </c>
+      <c r="G32" s="3">
+        <v>18249.410380757541</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1.0822384111806378</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45517</v>
+      </c>
+      <c r="C33" s="3">
+        <v>73.248856174858062</v>
+      </c>
+      <c r="D33" s="3">
+        <v>58.071437384485563</v>
+      </c>
+      <c r="E33" s="3">
+        <v>12.09658325466015</v>
+      </c>
+      <c r="F33" s="3">
+        <v>3.0808355357123398</v>
+      </c>
+      <c r="G33" s="3">
+        <v>19551.583687283302</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1.1371770669344428</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="1">
+        <v>45517</v>
+      </c>
+      <c r="C34" s="3">
+        <v>83.881813679644608</v>
+      </c>
+      <c r="D34" s="3">
+        <v>65.912443535353447</v>
+      </c>
+      <c r="E34" s="3">
+        <v>14.556384280442288</v>
+      </c>
+      <c r="F34" s="3">
+        <v>3.412985863848867</v>
+      </c>
+      <c r="G34" s="3">
+        <v>18053.310871663944</v>
+      </c>
+      <c r="H34" s="3">
+        <v>1.1899408712383059</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="1">
+        <v>45530</v>
+      </c>
+      <c r="C35" s="3">
+        <v>329.15582207987313</v>
+      </c>
+      <c r="D35" s="3">
+        <v>167.97546623233916</v>
+      </c>
+      <c r="E35" s="3">
+        <v>123.54995932456831</v>
+      </c>
+      <c r="F35" s="3">
+        <v>37.630396522965611</v>
+      </c>
+      <c r="G35" s="3">
+        <v>20863.969787836872</v>
+      </c>
+      <c r="H35" s="3">
+        <v>3.5006992821037404</v>
+      </c>
+      <c r="I35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="1">
+        <v>45530</v>
+      </c>
+      <c r="C36" s="3">
+        <v>334.83692133336206</v>
+      </c>
+      <c r="D36" s="3">
+        <v>180.90842412901372</v>
+      </c>
+      <c r="E36" s="3">
+        <v>117.84421390209171</v>
+      </c>
+      <c r="F36" s="3">
+        <v>36.084283302256601</v>
+      </c>
+      <c r="G36" s="3">
+        <v>21796.607391015572</v>
+      </c>
+      <c r="H36" s="3">
+        <v>3.9702355684064199</v>
+      </c>
+      <c r="I36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="1">
+        <v>45530</v>
+      </c>
+      <c r="C37" s="3">
+        <v>372.28084318032961</v>
+      </c>
+      <c r="D37" s="3">
+        <v>208.79641035939969</v>
+      </c>
+      <c r="E37" s="3">
+        <v>128.2000931521645</v>
+      </c>
+      <c r="F37" s="3">
+        <v>35.284339668765462</v>
+      </c>
+      <c r="G37" s="3">
+        <v>22273.901367436134</v>
+      </c>
+      <c r="H37" s="3">
+        <v>4.6532866602556764</v>
+      </c>
+      <c r="I37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="1">
+        <v>45530</v>
+      </c>
+      <c r="C38" s="3">
+        <v>393.45683147146957</v>
+      </c>
+      <c r="D38" s="3">
+        <v>217.5776235797926</v>
+      </c>
+      <c r="E38" s="3">
+        <v>139.82568363982259</v>
+      </c>
+      <c r="F38" s="3">
+        <v>36.053524251854256</v>
+      </c>
+      <c r="G38" s="3">
+        <v>22476.98277604887</v>
+      </c>
+      <c r="H38" s="3">
+        <v>4.9157399081104991</v>
+      </c>
+      <c r="I38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="1">
+        <v>45538</v>
+      </c>
+      <c r="C39" s="3">
+        <v>151.64032436258603</v>
+      </c>
+      <c r="D39" s="3">
+        <v>105.91804847470817</v>
+      </c>
+      <c r="E39" s="3">
+        <v>36.500027507388893</v>
+      </c>
+      <c r="F39" s="3">
+        <v>9.2222483804889563</v>
+      </c>
+      <c r="G39" s="3">
+        <v>17104.17011832993</v>
+      </c>
+      <c r="H39" s="3">
+        <v>1.8217423871328664</v>
+      </c>
+      <c r="I39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="1">
+        <v>45538</v>
+      </c>
+      <c r="C40" s="3">
+        <v>183.93367834509201</v>
+      </c>
+      <c r="D40" s="3">
+        <v>127.56256996877205</v>
+      </c>
+      <c r="E40" s="3">
+        <v>44.321206743447171</v>
+      </c>
+      <c r="F40" s="3">
+        <v>12.049901632872791</v>
+      </c>
+      <c r="G40" s="3">
+        <v>17482.17591079796</v>
+      </c>
+      <c r="H40" s="3">
+        <v>2.2463101285487657</v>
+      </c>
+      <c r="I40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="1">
+        <v>45538</v>
+      </c>
+      <c r="C41" s="3">
+        <v>173.03222865310119</v>
+      </c>
+      <c r="D41" s="3">
+        <v>119.14834996944458</v>
+      </c>
+      <c r="E41" s="3">
+        <v>42.484821711082681</v>
+      </c>
+      <c r="F41" s="3">
+        <v>11.399056972573909</v>
+      </c>
+      <c r="G41" s="3">
+        <v>18145.26776249658</v>
+      </c>
+      <c r="H41" s="3">
+        <v>2.1684833541170692</v>
+      </c>
+      <c r="I41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="1">
+        <v>45538</v>
+      </c>
+      <c r="C42" s="3">
+        <v>186.78177901895512</v>
+      </c>
+      <c r="D42" s="3">
+        <v>129.79348295050224</v>
+      </c>
+      <c r="E42" s="3">
+        <v>46.851567715856291</v>
+      </c>
+      <c r="F42" s="3">
+        <v>10.13672835259657</v>
+      </c>
+      <c r="G42" s="3">
+        <v>18518.856259632736</v>
+      </c>
+      <c r="H42" s="3">
+        <v>2.4097236890189651</v>
+      </c>
+      <c r="I42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="1">
+        <v>45394</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1.2250000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="1">
+        <v>45399</v>
+      </c>
+      <c r="J44" s="3">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="1">
+        <v>45401</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2.9666666666666663</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45404</v>
+      </c>
+      <c r="J46" s="3">
+        <v>3.4833333333333329</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="1">
+        <v>45406</v>
+      </c>
+      <c r="J47" s="3">
+        <v>3.6750000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="1">
+        <v>45412</v>
+      </c>
+      <c r="J48" s="3">
+        <v>4.258333333333332</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="1">
+        <v>45415</v>
+      </c>
+      <c r="J49" s="3">
+        <v>4.7583333333333337</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="1">
+        <v>45418</v>
+      </c>
+      <c r="J50" s="3">
+        <v>4.9833333333333343</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="1">
+        <v>45421</v>
+      </c>
+      <c r="J51" s="3">
+        <v>5.0166666666666657</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="1">
+        <v>45424</v>
+      </c>
+      <c r="J52" s="3">
+        <v>5.4249999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="1">
+        <v>45429</v>
+      </c>
+      <c r="J53" s="3">
+        <v>5.7833333333333323</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="1">
+        <v>45432</v>
+      </c>
+      <c r="J54" s="3">
+        <v>5.9416666666666664</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="1">
+        <v>45436</v>
+      </c>
+      <c r="J55" s="3">
+        <v>6.1166666666666663</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="1">
+        <v>45440</v>
+      </c>
+      <c r="J56" s="3">
+        <v>6.375</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" s="1">
+        <v>45443</v>
+      </c>
+      <c r="J57" s="3">
+        <v>6.6416666666666657</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="1">
+        <v>45446</v>
+      </c>
+      <c r="J58" s="3">
+        <v>6.9083333333333323</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="1">
+        <v>45449</v>
+      </c>
+      <c r="J59" s="3">
+        <v>6.9999999999999991</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="1">
+        <v>45453</v>
+      </c>
+      <c r="J60" s="3">
+        <v>7.1583333333333341</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="1">
+        <v>45456</v>
+      </c>
+      <c r="J61" s="3">
+        <v>7.3250000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="1">
+        <v>45460</v>
+      </c>
+      <c r="J62" s="3">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" s="1">
+        <v>45465</v>
+      </c>
+      <c r="J63" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="1">
+        <v>45468</v>
+      </c>
+      <c r="J64" s="3">
+        <v>8.0916666666666668</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="1">
+        <v>45471</v>
+      </c>
+      <c r="J65" s="3">
+        <v>8.7416666666666689</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" s="1">
+        <v>45475</v>
+      </c>
+      <c r="J66" s="3">
+        <v>9.0083333333333346</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="1">
+        <v>45478</v>
+      </c>
+      <c r="J67" s="3">
+        <v>9.2416666666666654</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" s="1">
+        <v>45483</v>
+      </c>
+      <c r="J68" s="3">
+        <v>9.3833333333333346</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="1">
+        <v>45489</v>
+      </c>
+      <c r="J69" s="3">
+        <v>9.5833333333333321</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="1">
+        <v>45492</v>
+      </c>
+      <c r="J70" s="3">
+        <v>9.7583333333333329</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" s="1">
+        <v>45495</v>
+      </c>
+      <c r="J71" s="3">
+        <v>10.025</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" s="1">
+        <v>45498</v>
+      </c>
+      <c r="J72" s="3">
+        <v>10.216666666666667</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="1">
+        <v>45502</v>
+      </c>
+      <c r="J73" s="3">
+        <v>10.466666666666667</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" s="1">
+        <v>45506</v>
+      </c>
+      <c r="J74" s="3">
+        <v>10.583333333333334</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" s="1">
+        <v>45509</v>
+      </c>
+      <c r="J75" s="3">
+        <v>10.641666666666666</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" s="1">
+        <v>45513</v>
+      </c>
+      <c r="J76" s="3">
+        <v>10.816666666666668</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" s="1">
+        <v>45517</v>
+      </c>
+      <c r="J77" s="3">
+        <v>11.050000000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78" s="1">
+        <v>45520</v>
+      </c>
+      <c r="J78" s="3">
+        <v>11.341666666666667</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>24</v>
+      </c>
+      <c r="B79" s="1">
+        <v>45523</v>
+      </c>
+      <c r="J79" s="3">
+        <v>11.458333333333334</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" s="1">
+        <v>45527</v>
+      </c>
+      <c r="J80" s="3">
+        <v>11.633333333333333</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" s="1">
+        <v>45530</v>
+      </c>
+      <c r="J81" s="3">
+        <v>11.833333333333336</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82" s="1">
+        <v>45534</v>
+      </c>
+      <c r="J82" s="3">
+        <v>12.15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>24</v>
+      </c>
+      <c r="B83" s="1">
+        <v>45537</v>
+      </c>
+      <c r="J83" s="3">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>24</v>
+      </c>
+      <c r="B84" s="1">
+        <v>45541</v>
+      </c>
+      <c r="J84" s="3">
+        <v>12.616666666666665</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" s="1">
+        <v>45394</v>
+      </c>
+      <c r="J85" s="3">
+        <v>1.2666666666666666</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>25</v>
+      </c>
+      <c r="B86" s="1">
+        <v>45399</v>
+      </c>
+      <c r="J86" s="3">
+        <v>2.8083333333333336</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>25</v>
+      </c>
+      <c r="B87" s="1">
+        <v>45401</v>
+      </c>
+      <c r="J87" s="3">
+        <v>2.9250000000000003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>25</v>
+      </c>
+      <c r="B88" s="1">
+        <v>45404</v>
+      </c>
+      <c r="J88" s="3">
+        <v>3.4916666666666667</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>25</v>
+      </c>
+      <c r="B89" s="1">
+        <v>45406</v>
+      </c>
+      <c r="J89" s="3">
+        <v>3.7166666666666663</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>25</v>
+      </c>
+      <c r="B90" s="1">
+        <v>45412</v>
+      </c>
+      <c r="J90" s="3">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>25</v>
+      </c>
+      <c r="B91" s="1">
+        <v>45415</v>
+      </c>
+      <c r="J91" s="3">
+        <v>4.8583333333333334</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>25</v>
+      </c>
+      <c r="B92" s="1">
+        <v>45418</v>
+      </c>
+      <c r="J92" s="3">
+        <v>5.1916666666666673</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>25</v>
+      </c>
+      <c r="B93" s="1">
+        <v>45421</v>
+      </c>
+      <c r="J93" s="3">
+        <v>5.3666666666666663</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>25</v>
+      </c>
+      <c r="B94" s="1">
+        <v>45424</v>
+      </c>
+      <c r="J94" s="3">
+        <v>5.6333333333333329</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>25</v>
+      </c>
+      <c r="B95" s="1">
+        <v>45429</v>
+      </c>
+      <c r="J95" s="3">
+        <v>5.9333333333333336</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>25</v>
+      </c>
+      <c r="B96" s="1">
+        <v>45432</v>
+      </c>
+      <c r="J96" s="3">
+        <v>6.1833333333333336</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>25</v>
+      </c>
+      <c r="B97" s="1">
+        <v>45436</v>
+      </c>
+      <c r="J97" s="3">
+        <v>6.4750000000000005</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>25</v>
+      </c>
+      <c r="B98" s="1">
+        <v>45440</v>
+      </c>
+      <c r="J98" s="3">
+        <v>6.7333333333333334</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>25</v>
+      </c>
+      <c r="B99" s="1">
+        <v>45443</v>
+      </c>
+      <c r="J99" s="3">
+        <v>6.8750000000000009</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>25</v>
+      </c>
+      <c r="B100" s="1">
+        <v>45446</v>
+      </c>
+      <c r="J100" s="3">
+        <v>7.0583333333333327</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>25</v>
+      </c>
+      <c r="B101" s="1">
+        <v>45449</v>
+      </c>
+      <c r="J101" s="3">
+        <v>7.2416666666666671</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>25</v>
+      </c>
+      <c r="B102" s="1">
+        <v>45453</v>
+      </c>
+      <c r="J102" s="3">
+        <v>7.4916666666666671</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>25</v>
+      </c>
+      <c r="B103" s="1">
+        <v>45456</v>
+      </c>
+      <c r="J103" s="3">
+        <v>7.6583333333333323</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>25</v>
+      </c>
+      <c r="B104" s="1">
+        <v>45460</v>
+      </c>
+      <c r="J104" s="3">
+        <v>7.9499999999999993</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>25</v>
+      </c>
+      <c r="B105" s="1">
+        <v>45465</v>
+      </c>
+      <c r="J105" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>25</v>
+      </c>
+      <c r="B106" s="1">
+        <v>45468</v>
+      </c>
+      <c r="J106" s="3">
+        <v>8.3916666666666675</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>25</v>
+      </c>
+      <c r="B107" s="1">
+        <v>45471</v>
+      </c>
+      <c r="J107" s="3">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>25</v>
+      </c>
+      <c r="B108" s="1">
+        <v>45475</v>
+      </c>
+      <c r="J108" s="3">
+        <v>8.8750000000000018</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>25</v>
+      </c>
+      <c r="B109" s="1">
+        <v>45478</v>
+      </c>
+      <c r="J109" s="3">
+        <v>8.9733333333333345</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>25</v>
+      </c>
+      <c r="B110" s="1">
+        <v>45483</v>
+      </c>
+      <c r="J110" s="3">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>25</v>
+      </c>
+      <c r="B111" s="1">
+        <v>45489</v>
+      </c>
+      <c r="J111" s="3">
+        <v>9.4083333333333332</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>25</v>
+      </c>
+      <c r="B112" s="1">
+        <v>45492</v>
+      </c>
+      <c r="J112" s="3">
+        <v>9.5666666666666682</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>25</v>
+      </c>
+      <c r="B113" s="1">
+        <v>45495</v>
+      </c>
+      <c r="J113" s="3">
+        <v>9.8583333333333325</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>25</v>
+      </c>
+      <c r="B114" s="1">
+        <v>45498</v>
+      </c>
+      <c r="J114" s="3">
+        <v>10.008333333333333</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>25</v>
+      </c>
+      <c r="B115" s="1">
+        <v>45502</v>
+      </c>
+      <c r="J115" s="3">
+        <v>10.191666666666666</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>25</v>
+      </c>
+      <c r="B116" s="1">
+        <v>45506</v>
+      </c>
+      <c r="J116" s="3">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>25</v>
+      </c>
+      <c r="B117" s="1">
+        <v>45509</v>
+      </c>
+      <c r="J117" s="3">
+        <v>10.475</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>25</v>
+      </c>
+      <c r="B118" s="1">
+        <v>45513</v>
+      </c>
+      <c r="J118" s="3">
+        <v>10.683333333333332</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>25</v>
+      </c>
+      <c r="B119" s="1">
+        <v>45517</v>
+      </c>
+      <c r="J119" s="3">
+        <v>10.958333333333334</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>25</v>
+      </c>
+      <c r="B120" s="1">
+        <v>45520</v>
+      </c>
+      <c r="J120" s="3">
+        <v>11.15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>25</v>
+      </c>
+      <c r="B121" s="1">
+        <v>45523</v>
+      </c>
+      <c r="J121" s="3">
+        <v>11.266666666666667</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>25</v>
+      </c>
+      <c r="B122" s="1">
+        <v>45527</v>
+      </c>
+      <c r="J122" s="3">
+        <v>11.491666666666667</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>25</v>
+      </c>
+      <c r="B123" s="1">
+        <v>45530</v>
+      </c>
+      <c r="J123" s="3">
+        <v>11.758333333333335</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>25</v>
+      </c>
+      <c r="B124" s="1">
+        <v>45534</v>
+      </c>
+      <c r="J124" s="3">
+        <v>12.058333333333335</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>25</v>
+      </c>
+      <c r="B125" s="1">
+        <v>45537</v>
+      </c>
+      <c r="J125" s="3">
+        <v>12.291666666666666</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>25</v>
+      </c>
+      <c r="B126" s="1">
+        <v>45541</v>
+      </c>
+      <c r="J126" s="3">
+        <v>12.608333333333334</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>26</v>
+      </c>
+      <c r="B127" s="1">
+        <v>45394</v>
+      </c>
+      <c r="J127" s="3">
+        <v>1.1583333333333334</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>26</v>
+      </c>
+      <c r="B128" s="1">
+        <v>45399</v>
+      </c>
+      <c r="J128" s="3">
+        <v>2.7249999999999996</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>26</v>
+      </c>
+      <c r="B129" s="1">
+        <v>45401</v>
+      </c>
+      <c r="J129" s="3">
+        <v>2.8416666666666663</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>26</v>
+      </c>
+      <c r="B130" s="1">
+        <v>45404</v>
+      </c>
+      <c r="J130" s="3">
+        <v>3.0333333333333332</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>26</v>
+      </c>
+      <c r="B131" s="1">
+        <v>45406</v>
+      </c>
+      <c r="J131" s="3">
+        <v>3.2416666666666667</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>26</v>
+      </c>
+      <c r="B132" s="1">
+        <v>45412</v>
+      </c>
+      <c r="J132" s="3">
+        <v>3.8666666666666667</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>26</v>
+      </c>
+      <c r="B133" s="1">
+        <v>45415</v>
+      </c>
+      <c r="J133" s="3">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>26</v>
+      </c>
+      <c r="B134" s="1">
+        <v>45418</v>
+      </c>
+      <c r="J134" s="3">
+        <v>4.8250000000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>26</v>
+      </c>
+      <c r="B135" s="1">
+        <v>45421</v>
+      </c>
+      <c r="J135" s="3">
+        <v>5.083333333333333</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>26</v>
+      </c>
+      <c r="B136" s="1">
+        <v>45424</v>
+      </c>
+      <c r="J136" s="3">
+        <v>5.3916666666666666</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>26</v>
+      </c>
+      <c r="B137" s="1">
+        <v>45429</v>
+      </c>
+      <c r="J137" s="3">
+        <v>5.708333333333333</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>26</v>
+      </c>
+      <c r="B138" s="1">
+        <v>45432</v>
+      </c>
+      <c r="J138" s="3">
+        <v>5.8500000000000005</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>26</v>
+      </c>
+      <c r="B139" s="1">
+        <v>45436</v>
+      </c>
+      <c r="J139" s="3">
+        <v>6.0833333333333348</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>26</v>
+      </c>
+      <c r="B140" s="1">
+        <v>45440</v>
+      </c>
+      <c r="J140" s="3">
+        <v>6.6999999999999993</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>26</v>
+      </c>
+      <c r="B141" s="1">
+        <v>45443</v>
+      </c>
+      <c r="J141" s="3">
+        <v>6.8749999999999991</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>26</v>
+      </c>
+      <c r="B142" s="1">
+        <v>45446</v>
+      </c>
+      <c r="J142" s="3">
+        <v>7.125</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>26</v>
+      </c>
+      <c r="B143" s="1">
+        <v>45449</v>
+      </c>
+      <c r="J143" s="3">
+        <v>7.2499999999999991</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>26</v>
+      </c>
+      <c r="B144" s="1">
+        <v>45453</v>
+      </c>
+      <c r="J144" s="3">
+        <v>7.4416666666666673</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>26</v>
+      </c>
+      <c r="B145" s="1">
+        <v>45456</v>
+      </c>
+      <c r="J145" s="3">
+        <v>7.6416666666666666</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>26</v>
+      </c>
+      <c r="B146" s="1">
+        <v>45460</v>
+      </c>
+      <c r="J146" s="3">
+        <v>7.9833333333333334</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>26</v>
+      </c>
+      <c r="B147" s="1">
+        <v>45465</v>
+      </c>
+      <c r="J147" s="3">
+        <v>8.2750000000000004</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>26</v>
+      </c>
+      <c r="B148" s="1">
+        <v>45468</v>
+      </c>
+      <c r="J148" s="3">
+        <v>8.4250000000000007</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>26</v>
+      </c>
+      <c r="B149" s="1">
+        <v>45471</v>
+      </c>
+      <c r="J149" s="3">
+        <v>8.6833333333333336</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>26</v>
+      </c>
+      <c r="B150" s="1">
+        <v>45475</v>
+      </c>
+      <c r="J150" s="3">
+        <v>8.8833333333333346</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>26</v>
+      </c>
+      <c r="B151" s="1">
+        <v>45478</v>
+      </c>
+      <c r="J151" s="3">
+        <v>8.9916666666666654</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>26</v>
+      </c>
+      <c r="B152" s="1">
+        <v>45483</v>
+      </c>
+      <c r="J152" s="3">
+        <v>9.2083333333333339</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>26</v>
+      </c>
+      <c r="B153" s="1">
+        <v>45489</v>
+      </c>
+      <c r="J153" s="3">
+        <v>9.4166666666666661</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>26</v>
+      </c>
+      <c r="B154" s="1">
+        <v>45492</v>
+      </c>
+      <c r="J154" s="3">
+        <v>9.65</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>26</v>
+      </c>
+      <c r="B155" s="1">
+        <v>45495</v>
+      </c>
+      <c r="J155" s="3">
+        <v>9.8666666666666671</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>26</v>
+      </c>
+      <c r="B156" s="1">
+        <v>45498</v>
+      </c>
+      <c r="J156" s="3">
+        <v>10.033333333333333</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>26</v>
+      </c>
+      <c r="B157" s="1">
+        <v>45502</v>
+      </c>
+      <c r="J157" s="3">
+        <v>10.300000000000002</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>26</v>
+      </c>
+      <c r="B158" s="1">
+        <v>45506</v>
+      </c>
+      <c r="J158" s="3">
+        <v>10.45833333333333</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>26</v>
+      </c>
+      <c r="B159" s="1">
+        <v>45509</v>
+      </c>
+      <c r="J159" s="3">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>26</v>
+      </c>
+      <c r="B160" s="1">
+        <v>45513</v>
+      </c>
+      <c r="J160" s="3">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>26</v>
+      </c>
+      <c r="B161" s="1">
+        <v>45517</v>
+      </c>
+      <c r="J161" s="3">
+        <v>10.958333333333336</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>26</v>
+      </c>
+      <c r="B162" s="1">
+        <v>45520</v>
+      </c>
+      <c r="J162" s="3">
+        <v>11.174999999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>26</v>
+      </c>
+      <c r="B163" s="1">
+        <v>45523</v>
+      </c>
+      <c r="J163" s="3">
+        <v>11.375</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>26</v>
+      </c>
+      <c r="B164" s="1">
+        <v>45527</v>
+      </c>
+      <c r="J164" s="3">
+        <v>11.533333333333333</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>26</v>
+      </c>
+      <c r="B165" s="1">
+        <v>45530</v>
+      </c>
+      <c r="J165" s="3">
+        <v>11.833333333333334</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>26</v>
+      </c>
+      <c r="B166" s="1">
+        <v>45534</v>
+      </c>
+      <c r="J166" s="3">
+        <v>12.025</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>26</v>
+      </c>
+      <c r="B167" s="1">
+        <v>45537</v>
+      </c>
+      <c r="J167" s="3">
+        <v>12.341666666666667</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>26</v>
+      </c>
+      <c r="B168" s="1">
+        <v>45541</v>
+      </c>
+      <c r="J168" s="3">
+        <v>12.608333333333334</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>27</v>
+      </c>
+      <c r="B169" s="1">
+        <v>45394</v>
+      </c>
+      <c r="J169" s="3">
+        <v>1.2500000000000002</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>27</v>
+      </c>
+      <c r="B170" s="1">
+        <v>45399</v>
+      </c>
+      <c r="J170" s="3">
+        <v>2.8083333333333336</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>27</v>
+      </c>
+      <c r="B171" s="1">
+        <v>45401</v>
+      </c>
+      <c r="J171" s="3">
+        <v>2.9666666666666668</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>27</v>
+      </c>
+      <c r="B172" s="1">
+        <v>45404</v>
+      </c>
+      <c r="J172" s="3">
+        <v>3.4333333333333331</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>27</v>
+      </c>
+      <c r="B173" s="1">
+        <v>45406</v>
+      </c>
+      <c r="J173" s="3">
+        <v>3.6916666666666664</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>27</v>
+      </c>
+      <c r="B174" s="1">
+        <v>45412</v>
+      </c>
+      <c r="J174" s="3">
+        <v>4.3666666666666663</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>27</v>
+      </c>
+      <c r="B175" s="1">
+        <v>45415</v>
+      </c>
+      <c r="J175" s="3">
+        <v>4.7333333333333334</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>27</v>
+      </c>
+      <c r="B176" s="1">
+        <v>45418</v>
+      </c>
+      <c r="J176" s="3">
+        <v>5.0250000000000004</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>27</v>
+      </c>
+      <c r="B177" s="1">
+        <v>45421</v>
+      </c>
+      <c r="J177" s="3">
+        <v>5.1333333333333337</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>27</v>
+      </c>
+      <c r="B178" s="1">
+        <v>45424</v>
+      </c>
+      <c r="J178" s="3">
+        <v>5.4833333333333334</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>27</v>
+      </c>
+      <c r="B179" s="1">
+        <v>45429</v>
+      </c>
+      <c r="J179" s="3">
+        <v>5.8166666666666664</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>27</v>
+      </c>
+      <c r="B180" s="1">
+        <v>45432</v>
+      </c>
+      <c r="J180" s="3">
+        <v>5.958333333333333</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>27</v>
+      </c>
+      <c r="B181" s="1">
+        <v>45436</v>
+      </c>
+      <c r="J181" s="3">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>27</v>
+      </c>
+      <c r="B182" s="1">
+        <v>45440</v>
+      </c>
+      <c r="J182" s="3">
+        <v>6.375</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>27</v>
+      </c>
+      <c r="B183" s="1">
+        <v>45443</v>
+      </c>
+      <c r="J183" s="3">
+        <v>6.5916666666666659</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>27</v>
+      </c>
+      <c r="B184" s="1">
+        <v>45446</v>
+      </c>
+      <c r="J184" s="3">
+        <v>6.8500000000000005</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>27</v>
+      </c>
+      <c r="B185" s="1">
+        <v>45449</v>
+      </c>
+      <c r="J185" s="3">
+        <v>6.9750000000000005</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>27</v>
+      </c>
+      <c r="B186" s="1">
+        <v>45453</v>
+      </c>
+      <c r="J186" s="3">
+        <v>7.1833333333333345</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>27</v>
+      </c>
+      <c r="B187" s="1">
+        <v>45456</v>
+      </c>
+      <c r="J187" s="3">
+        <v>7.3166666666666664</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>27</v>
+      </c>
+      <c r="B188" s="1">
+        <v>45460</v>
+      </c>
+      <c r="J188" s="3">
+        <v>7.7666666666666666</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>27</v>
+      </c>
+      <c r="B189" s="1">
+        <v>45465</v>
+      </c>
+      <c r="J189" s="3">
+        <v>7.9999999999999991</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>27</v>
+      </c>
+      <c r="B190" s="1">
+        <v>45468</v>
+      </c>
+      <c r="J190" s="3">
+        <v>8.1666666666666661</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>27</v>
+      </c>
+      <c r="B191" s="1">
+        <v>45471</v>
+      </c>
+      <c r="J191" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>27</v>
+      </c>
+      <c r="B192" s="1">
+        <v>45475</v>
+      </c>
+      <c r="J192" s="3">
+        <v>8.4666666666666668</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>27</v>
+      </c>
+      <c r="B193" s="1">
+        <v>45478</v>
+      </c>
+      <c r="J193" s="3">
+        <v>8.7916666666666679</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>27</v>
+      </c>
+      <c r="B194" s="1">
+        <v>45483</v>
+      </c>
+      <c r="J194" s="3">
+        <v>8.9749999999999996</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>27</v>
+      </c>
+      <c r="B195" s="1">
+        <v>45489</v>
+      </c>
+      <c r="J195" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>27</v>
+      </c>
+      <c r="B196" s="1">
+        <v>45492</v>
+      </c>
+      <c r="J196" s="3">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>27</v>
+      </c>
+      <c r="B197" s="1">
+        <v>45495</v>
+      </c>
+      <c r="J197" s="3">
+        <v>9.5749999999999993</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>27</v>
+      </c>
+      <c r="B198" s="1">
+        <v>45498</v>
+      </c>
+      <c r="J198" s="3">
+        <v>9.8083333333333336</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>27</v>
+      </c>
+      <c r="B199" s="1">
+        <v>45502</v>
+      </c>
+      <c r="J199" s="3">
+        <v>10.066666666666668</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>27</v>
+      </c>
+      <c r="B200" s="1">
+        <v>45506</v>
+      </c>
+      <c r="J200" s="3">
+        <v>10.200000000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>27</v>
+      </c>
+      <c r="B201" s="1">
+        <v>45509</v>
+      </c>
+      <c r="J201" s="3">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>27</v>
+      </c>
+      <c r="B202" s="1">
+        <v>45513</v>
+      </c>
+      <c r="J202" s="3">
+        <v>10.475000000000001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>27</v>
+      </c>
+      <c r="B203" s="1">
+        <v>45517</v>
+      </c>
+      <c r="J203" s="3">
+        <v>10.783333333333331</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>27</v>
+      </c>
+      <c r="B204" s="1">
+        <v>45520</v>
+      </c>
+      <c r="J204" s="3">
+        <v>10.908333333333333</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>27</v>
+      </c>
+      <c r="B205" s="1">
+        <v>45523</v>
+      </c>
+      <c r="J205" s="3">
+        <v>11.108333333333334</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>27</v>
+      </c>
+      <c r="B206" s="1">
+        <v>45527</v>
+      </c>
+      <c r="J206" s="3">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>27</v>
+      </c>
+      <c r="B207" s="1">
+        <v>45530</v>
+      </c>
+      <c r="J207" s="3">
+        <v>11.491666666666667</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>27</v>
+      </c>
+      <c r="B208" s="1">
+        <v>45534</v>
+      </c>
+      <c r="J208" s="3">
+        <v>11.816666666666668</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>27</v>
+      </c>
+      <c r="B209" s="1">
+        <v>45537</v>
+      </c>
+      <c r="J209" s="3">
+        <v>12.058333333333335</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>27</v>
+      </c>
+      <c r="B210" s="1">
+        <v>45541</v>
+      </c>
+      <c r="J210" s="3">
+        <v>12.358333333333334</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>20</v>
+      </c>
+      <c r="B211" s="1">
+        <v>45435</v>
+      </c>
+      <c r="J211" s="3">
+        <v>0.92499999999999993</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>20</v>
+      </c>
+      <c r="B212" s="1">
+        <v>45439</v>
+      </c>
+      <c r="J212" s="3">
+        <v>1.1833333333333336</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>20</v>
+      </c>
+      <c r="B213" s="1">
+        <v>45442</v>
+      </c>
+      <c r="J213" s="3">
+        <v>1.325</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>20</v>
+      </c>
+      <c r="B214" s="1">
+        <v>45447</v>
+      </c>
+      <c r="J214" s="3">
+        <v>1.6250000000000002</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>20</v>
+      </c>
+      <c r="B215" s="1">
+        <v>45450</v>
+      </c>
+      <c r="J215" s="3">
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>20</v>
+      </c>
+      <c r="B216" s="1">
+        <v>45454</v>
+      </c>
+      <c r="J216" s="3">
+        <v>2.1333333333333329</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>20</v>
+      </c>
+      <c r="B217" s="1">
+        <v>45457</v>
+      </c>
+      <c r="J217" s="3">
+        <v>2.3916666666666666</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>20</v>
+      </c>
+      <c r="B218" s="1">
+        <v>45463</v>
+      </c>
+      <c r="J218" s="3">
+        <v>2.7750000000000004</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>20</v>
+      </c>
+      <c r="B219" s="1">
+        <v>45467</v>
+      </c>
+      <c r="J219" s="3">
+        <v>3.0833333333333335</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>20</v>
+      </c>
+      <c r="B220" s="1">
+        <v>45470</v>
+      </c>
+      <c r="J220" s="3">
+        <v>3.3833333333333333</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>20</v>
+      </c>
+      <c r="B221" s="1">
+        <v>45474</v>
+      </c>
+      <c r="J221" s="3">
+        <v>3.6583333333333337</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>20</v>
+      </c>
+      <c r="B222" s="1">
+        <v>45477</v>
+      </c>
+      <c r="J222" s="3">
+        <v>3.8333333333333326</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>20</v>
+      </c>
+      <c r="B223" s="1">
+        <v>45481</v>
+      </c>
+      <c r="J223" s="3">
+        <v>3.9750000000000001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>20</v>
+      </c>
+      <c r="B224" s="1">
+        <v>45488</v>
+      </c>
+      <c r="J224" s="3">
+        <v>4.3250000000000002</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>20</v>
+      </c>
+      <c r="B225" s="1">
+        <v>45492</v>
+      </c>
+      <c r="J225" s="3">
+        <v>4.6749999999999998</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>20</v>
+      </c>
+      <c r="B226" s="1">
+        <v>45495</v>
+      </c>
+      <c r="J226" s="3">
+        <v>4.916666666666667</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>20</v>
+      </c>
+      <c r="B227" s="1">
+        <v>45498</v>
+      </c>
+      <c r="J227" s="3">
+        <v>5.0750000000000002</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>20</v>
+      </c>
+      <c r="B228" s="1">
+        <v>45502</v>
+      </c>
+      <c r="J228" s="3">
+        <v>5.375</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>20</v>
+      </c>
+      <c r="B229" s="1">
+        <v>45506</v>
+      </c>
+      <c r="J229" s="3">
+        <v>5.6083333333333343</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>20</v>
+      </c>
+      <c r="B230" s="1">
+        <v>45509</v>
+      </c>
+      <c r="J230" s="3">
+        <v>5.7250000000000005</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>20</v>
+      </c>
+      <c r="B231" s="1">
+        <v>45513</v>
+      </c>
+      <c r="J231" s="3">
+        <v>5.9666666666666659</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>20</v>
+      </c>
+      <c r="B232" s="1">
+        <v>45516</v>
+      </c>
+      <c r="J232" s="3">
+        <v>6.1833333333333336</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>20</v>
+      </c>
+      <c r="B233" s="1">
+        <v>45520</v>
+      </c>
+      <c r="J233" s="3">
+        <v>6.3749999999999991</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>20</v>
+      </c>
+      <c r="B234" s="1">
+        <v>45523</v>
+      </c>
+      <c r="J234" s="3">
+        <v>6.5916666666666659</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>20</v>
+      </c>
+      <c r="B235" s="1">
+        <v>45527</v>
+      </c>
+      <c r="J235" s="3">
+        <v>6.9083333333333323</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>20</v>
+      </c>
+      <c r="B236" s="1">
+        <v>45530</v>
+      </c>
+      <c r="J236" s="3">
+        <v>7.2166666666666677</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>20</v>
+      </c>
+      <c r="B237" s="1">
+        <v>45534</v>
+      </c>
+      <c r="J237" s="3">
+        <v>7.4583333333333348</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>20</v>
+      </c>
+      <c r="B238" s="1">
+        <v>45537</v>
+      </c>
+      <c r="J238" s="3">
+        <v>7.8250000000000002</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>20</v>
+      </c>
+      <c r="B239" s="1">
+        <v>45541</v>
+      </c>
+      <c r="J239" s="3">
+        <v>8.1250000000000018</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>21</v>
+      </c>
+      <c r="B240" s="1">
+        <v>45435</v>
+      </c>
+      <c r="J240" s="3">
+        <v>0.96666666666666679</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>21</v>
+      </c>
+      <c r="B241" s="1">
+        <v>45439</v>
+      </c>
+      <c r="J241" s="3">
+        <v>1.1833333333333331</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>21</v>
+      </c>
+      <c r="B242" s="1">
+        <v>45442</v>
+      </c>
+      <c r="J242" s="3">
+        <v>1.375</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>21</v>
+      </c>
+      <c r="B243" s="1">
+        <v>45447</v>
+      </c>
+      <c r="J243" s="3">
+        <v>1.6583333333333334</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>21</v>
+      </c>
+      <c r="B244" s="1">
+        <v>45450</v>
+      </c>
+      <c r="J244" s="3">
+        <v>1.8416666666666668</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>21</v>
+      </c>
+      <c r="B245" s="1">
+        <v>45454</v>
+      </c>
+      <c r="J245" s="3">
+        <v>2.2250000000000001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>21</v>
+      </c>
+      <c r="B246" s="1">
+        <v>45457</v>
+      </c>
+      <c r="J246" s="3">
+        <v>2.4000000000000008</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>21</v>
+      </c>
+      <c r="B247" s="1">
+        <v>45463</v>
+      </c>
+      <c r="J247" s="3">
+        <v>2.9583333333333335</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>21</v>
+      </c>
+      <c r="B248" s="1">
+        <v>45467</v>
+      </c>
+      <c r="J248" s="3">
+        <v>3.1916666666666678</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>21</v>
+      </c>
+      <c r="B249" s="1">
+        <v>45470</v>
+      </c>
+      <c r="J249" s="3">
+        <v>3.5499999999999994</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>21</v>
+      </c>
+      <c r="B250" s="1">
+        <v>45474</v>
+      </c>
+      <c r="J250" s="3">
+        <v>3.8416666666666663</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>21</v>
+      </c>
+      <c r="B251" s="1">
+        <v>45477</v>
+      </c>
+      <c r="J251" s="3">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>21</v>
+      </c>
+      <c r="B252" s="1">
+        <v>45481</v>
+      </c>
+      <c r="J252" s="3">
+        <v>4.1916666666666673</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>21</v>
+      </c>
+      <c r="B253" s="1">
+        <v>45488</v>
+      </c>
+      <c r="J253" s="3">
+        <v>4.541666666666667</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>21</v>
+      </c>
+      <c r="B254" s="1">
+        <v>45492</v>
+      </c>
+      <c r="J254" s="3">
+        <v>4.9008333333333329</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>21</v>
+      </c>
+      <c r="B255" s="1">
+        <v>45495</v>
+      </c>
+      <c r="J255" s="3">
+        <v>5.2499999999999991</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>21</v>
+      </c>
+      <c r="B256" s="1">
+        <v>45498</v>
+      </c>
+      <c r="J256" s="3">
+        <v>5.3916666666666666</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>21</v>
+      </c>
+      <c r="B257" s="1">
+        <v>45502</v>
+      </c>
+      <c r="J257" s="3">
+        <v>5.6833333333333336</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>21</v>
+      </c>
+      <c r="B258" s="1">
+        <v>45506</v>
+      </c>
+      <c r="J258" s="3">
+        <v>5.9333333333333345</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>21</v>
+      </c>
+      <c r="B259" s="1">
+        <v>45509</v>
+      </c>
+      <c r="J259" s="3">
+        <v>6.0749999999999984</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>21</v>
+      </c>
+      <c r="B260" s="1">
+        <v>45513</v>
+      </c>
+      <c r="J260" s="3">
+        <v>6.3666666666666671</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>21</v>
+      </c>
+      <c r="B261" s="1">
+        <v>45516</v>
+      </c>
+      <c r="J261" s="3">
+        <v>6.5749999999999993</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>21</v>
+      </c>
+      <c r="B262" s="1">
+        <v>45520</v>
+      </c>
+      <c r="J262" s="3">
+        <v>6.7666666666666684</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>21</v>
+      </c>
+      <c r="B263" s="1">
+        <v>45523</v>
+      </c>
+      <c r="J263" s="3">
+        <v>7.041666666666667</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>21</v>
+      </c>
+      <c r="B264" s="1">
+        <v>45527</v>
+      </c>
+      <c r="J264" s="3">
+        <v>7.3333333333333321</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>21</v>
+      </c>
+      <c r="B265" s="1">
+        <v>45530</v>
+      </c>
+      <c r="J265" s="3">
+        <v>7.6666666666666679</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>21</v>
+      </c>
+      <c r="B266" s="1">
+        <v>45534</v>
+      </c>
+      <c r="J266" s="3">
+        <v>7.958333333333333</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>21</v>
+      </c>
+      <c r="B267" s="1">
+        <v>45537</v>
+      </c>
+      <c r="J267" s="3">
+        <v>8.2666666666666657</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>21</v>
+      </c>
+      <c r="B268" s="1">
+        <v>45541</v>
+      </c>
+      <c r="J268" s="3">
+        <v>8.5916666666666668</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>22</v>
+      </c>
+      <c r="B269" s="1">
+        <v>45435</v>
+      </c>
+      <c r="J269" s="3">
+        <v>1.0750000000000002</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>22</v>
+      </c>
+      <c r="B270" s="1">
+        <v>45439</v>
+      </c>
+      <c r="J270" s="3">
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>22</v>
+      </c>
+      <c r="B271" s="1">
+        <v>45442</v>
+      </c>
+      <c r="J271" s="3">
+        <v>1.4083333333333334</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>22</v>
+      </c>
+      <c r="B272" s="1">
+        <v>45447</v>
+      </c>
+      <c r="J272" s="3">
+        <v>1.6833333333333333</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>22</v>
+      </c>
+      <c r="B273" s="1">
+        <v>45450</v>
+      </c>
+      <c r="J273" s="3">
+        <v>1.8249999999999995</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>22</v>
+      </c>
+      <c r="B274" s="1">
+        <v>45454</v>
+      </c>
+      <c r="J274" s="3">
+        <v>2.125</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>22</v>
+      </c>
+      <c r="B275" s="1">
+        <v>45457</v>
+      </c>
+      <c r="J275" s="3">
+        <v>2.375</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>22</v>
+      </c>
+      <c r="B276" s="1">
+        <v>45463</v>
+      </c>
+      <c r="J276" s="3">
+        <v>2.7833333333333332</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>22</v>
+      </c>
+      <c r="B277" s="1">
+        <v>45467</v>
+      </c>
+      <c r="J277" s="3">
+        <v>3.0250000000000004</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>22</v>
+      </c>
+      <c r="B278" s="1">
+        <v>45470</v>
+      </c>
+      <c r="J278" s="3">
+        <v>3.4833333333333329</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>22</v>
+      </c>
+      <c r="B279" s="1">
+        <v>45474</v>
+      </c>
+      <c r="J279" s="3">
+        <v>3.7500000000000004</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>22</v>
+      </c>
+      <c r="B280" s="1">
+        <v>45477</v>
+      </c>
+      <c r="J280" s="3">
+        <v>3.9166666666666674</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>22</v>
+      </c>
+      <c r="B281" s="1">
+        <v>45481</v>
+      </c>
+      <c r="J281" s="3">
+        <v>4.041666666666667</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>22</v>
+      </c>
+      <c r="B282" s="1">
+        <v>45488</v>
+      </c>
+      <c r="J282" s="3">
+        <v>4.4166666666666661</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>22</v>
+      </c>
+      <c r="B283" s="1">
+        <v>45492</v>
+      </c>
+      <c r="J283" s="3">
+        <v>4.7416666666666671</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>22</v>
+      </c>
+      <c r="B284" s="1">
+        <v>45495</v>
+      </c>
+      <c r="J284" s="3">
+        <v>4.9333333333333345</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>22</v>
+      </c>
+      <c r="B285" s="1">
+        <v>45498</v>
+      </c>
+      <c r="J285" s="3">
+        <v>5.1333333333333329</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>22</v>
+      </c>
+      <c r="B286" s="1">
+        <v>45502</v>
+      </c>
+      <c r="J286" s="3">
+        <v>5.541666666666667</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>22</v>
+      </c>
+      <c r="B287" s="1">
+        <v>45506</v>
+      </c>
+      <c r="J287" s="3">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>22</v>
+      </c>
+      <c r="B288" s="1">
+        <v>45509</v>
+      </c>
+      <c r="J288" s="3">
+        <v>5.8083333333333327</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>22</v>
+      </c>
+      <c r="B289" s="1">
+        <v>45513</v>
+      </c>
+      <c r="J289" s="3">
+        <v>6.0166666666666657</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>22</v>
+      </c>
+      <c r="B290" s="1">
+        <v>45516</v>
+      </c>
+      <c r="J290" s="3">
+        <v>6.333333333333333</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>22</v>
+      </c>
+      <c r="B291" s="1">
+        <v>45520</v>
+      </c>
+      <c r="J291" s="3">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>22</v>
+      </c>
+      <c r="B292" s="1">
+        <v>45523</v>
+      </c>
+      <c r="J292" s="3">
+        <v>6.7166666666666659</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>22</v>
+      </c>
+      <c r="B293" s="1">
+        <v>45527</v>
+      </c>
+      <c r="J293" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>22</v>
+      </c>
+      <c r="B294" s="1">
+        <v>45530</v>
+      </c>
+      <c r="J294" s="3">
+        <v>7.3666666666666663</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>22</v>
+      </c>
+      <c r="B295" s="1">
+        <v>45534</v>
+      </c>
+      <c r="J295" s="3">
+        <v>7.6500000000000012</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>22</v>
+      </c>
+      <c r="B296" s="1">
+        <v>45537</v>
+      </c>
+      <c r="J296" s="3">
+        <v>7.8999999999999995</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>22</v>
+      </c>
+      <c r="B297" s="1">
+        <v>45541</v>
+      </c>
+      <c r="J297" s="3">
+        <v>8.3166666666666682</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>23</v>
+      </c>
+      <c r="B298" s="1">
+        <v>45435</v>
+      </c>
+      <c r="J298" s="3">
+        <v>1.0583333333333333</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>23</v>
+      </c>
+      <c r="B299" s="1">
+        <v>45439</v>
+      </c>
+      <c r="J299" s="3">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>23</v>
+      </c>
+      <c r="B300" s="1">
+        <v>45442</v>
+      </c>
+      <c r="J300" s="3">
+        <v>1.4333333333333333</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>23</v>
+      </c>
+      <c r="B301" s="1">
+        <v>45447</v>
+      </c>
+      <c r="J301" s="3">
+        <v>1.7249999999999999</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>23</v>
+      </c>
+      <c r="B302" s="1">
+        <v>45450</v>
+      </c>
+      <c r="J302" s="3">
+        <v>2.0166666666666666</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>23</v>
+      </c>
+      <c r="B303" s="1">
+        <v>45454</v>
+      </c>
+      <c r="J303" s="3">
+        <v>2.2749999999999999</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>23</v>
+      </c>
+      <c r="B304" s="1">
+        <v>45457</v>
+      </c>
+      <c r="J304" s="3">
+        <v>2.4833333333333329</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>23</v>
+      </c>
+      <c r="B305" s="1">
+        <v>45463</v>
+      </c>
+      <c r="J305" s="3">
+        <v>2.9749999999999996</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>23</v>
+      </c>
+      <c r="B306" s="1">
+        <v>45467</v>
+      </c>
+      <c r="J306" s="3">
+        <v>3.3083333333333336</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>23</v>
+      </c>
+      <c r="B307" s="1">
+        <v>45470</v>
+      </c>
+      <c r="J307" s="3">
+        <v>3.6083333333333338</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>23</v>
+      </c>
+      <c r="B308" s="1">
+        <v>45474</v>
+      </c>
+      <c r="J308" s="3">
+        <v>3.9333333333333331</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>23</v>
+      </c>
+      <c r="B309" s="1">
+        <v>45477</v>
+      </c>
+      <c r="J309" s="3">
+        <v>4.1083333333333334</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>23</v>
+      </c>
+      <c r="B310" s="1">
+        <v>45481</v>
+      </c>
+      <c r="J310" s="3">
+        <v>4.2583333333333337</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>23</v>
+      </c>
+      <c r="B311" s="1">
+        <v>45488</v>
+      </c>
+      <c r="J311" s="3">
+        <v>4.6416666666666666</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>23</v>
+      </c>
+      <c r="B312" s="1">
+        <v>45492</v>
+      </c>
+      <c r="J312" s="3">
+        <v>5.0583333333333336</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>23</v>
+      </c>
+      <c r="B313" s="1">
+        <v>45495</v>
+      </c>
+      <c r="J313" s="3">
+        <v>5.3166666666666655</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>23</v>
+      </c>
+      <c r="B314" s="1">
+        <v>45498</v>
+      </c>
+      <c r="J314" s="3">
+        <v>5.5166666666666666</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>23</v>
+      </c>
+      <c r="B315" s="1">
+        <v>45502</v>
+      </c>
+      <c r="J315" s="3">
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>23</v>
+      </c>
+      <c r="B316" s="1">
+        <v>45506</v>
+      </c>
+      <c r="J316" s="3">
+        <v>6.0916666666666677</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>23</v>
+      </c>
+      <c r="B317" s="1">
+        <v>45509</v>
+      </c>
+      <c r="J317" s="3">
+        <v>6.1916666666666664</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>23</v>
+      </c>
+      <c r="B318" s="1">
+        <v>45513</v>
+      </c>
+      <c r="J318" s="3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>23</v>
+      </c>
+      <c r="B319" s="1">
+        <v>45516</v>
+      </c>
+      <c r="J319" s="3">
+        <v>6.7250000000000005</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>23</v>
+      </c>
+      <c r="B320" s="1">
+        <v>45520</v>
+      </c>
+      <c r="J320" s="3">
+        <v>6.9249999999999998</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>23</v>
+      </c>
+      <c r="B321" s="1">
+        <v>45523</v>
+      </c>
+      <c r="J321" s="3">
+        <v>7.2166666666666659</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>23</v>
+      </c>
+      <c r="B322" s="1">
+        <v>45527</v>
+      </c>
+      <c r="J322" s="3">
+        <v>7.4499999999999993</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>23</v>
+      </c>
+      <c r="B323" s="1">
+        <v>45530</v>
+      </c>
+      <c r="J323" s="3">
+        <v>7.8500000000000014</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>23</v>
+      </c>
+      <c r="B324" s="1">
+        <v>45534</v>
+      </c>
+      <c r="J324" s="3">
+        <v>8.125</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>23</v>
+      </c>
+      <c r="B325" s="1">
+        <v>45537</v>
+      </c>
+      <c r="J325" s="3">
+        <v>8.375</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>23</v>
+      </c>
+      <c r="B326" s="1">
+        <v>45541</v>
+      </c>
+      <c r="J326" s="3">
+        <v>8.7249999999999996</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>24</v>
+      </c>
+      <c r="B327" s="1">
+        <v>45400</v>
+      </c>
+      <c r="E327" s="1"/>
+      <c r="J327" s="3"/>
+      <c r="L327" s="3">
+        <v>0.16749999999999998</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>24</v>
+      </c>
+      <c r="B328" s="1">
+        <v>45405</v>
+      </c>
+      <c r="E328" s="1"/>
+      <c r="J328" s="3"/>
+      <c r="L328" s="3">
+        <v>0.21375</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>24</v>
+      </c>
+      <c r="B329" s="1">
+        <v>45412</v>
+      </c>
+      <c r="E329" s="1"/>
+      <c r="J329" s="3"/>
+      <c r="L329" s="3">
+        <v>0.23624999999999999</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>24</v>
+      </c>
+      <c r="B330" s="1">
+        <v>45420</v>
+      </c>
+      <c r="E330" s="1"/>
+      <c r="J330" s="3"/>
+      <c r="L330" s="3">
+        <v>0.45624999999999999</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>24</v>
+      </c>
+      <c r="B331" s="1">
+        <v>45428</v>
+      </c>
+      <c r="E331" s="1"/>
+      <c r="K331" s="3">
+        <v>97.916666666666657</v>
+      </c>
+      <c r="L331" s="3">
+        <v>0.51375000000000004</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>24</v>
+      </c>
+      <c r="B332" s="1">
+        <v>45435</v>
+      </c>
+      <c r="E332" s="1"/>
+      <c r="K332" s="3">
+        <v>112.5</v>
+      </c>
+      <c r="L332" s="3">
+        <v>0.57125000000000004</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>24</v>
+      </c>
+      <c r="B333" s="1">
+        <v>45440</v>
+      </c>
+      <c r="E333" s="1"/>
+      <c r="K333" s="3">
+        <v>120.83333333333331</v>
+      </c>
+      <c r="L333" s="3">
+        <v>0.57750000000000001</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>24</v>
+      </c>
+      <c r="B334" s="1">
+        <v>45449</v>
+      </c>
+      <c r="E334" s="1"/>
+      <c r="K334" s="3">
+        <v>126.66666666666666</v>
+      </c>
+      <c r="L334" s="3">
+        <v>0.60625000000000007</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>24</v>
+      </c>
+      <c r="B335" s="1">
+        <v>45455</v>
+      </c>
+      <c r="E335" s="1"/>
+      <c r="K335" s="3">
+        <v>122.91666666666666</v>
+      </c>
+      <c r="L335" s="3">
+        <v>0.65999999999999992</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>24</v>
+      </c>
+      <c r="B336" s="1">
+        <v>45463</v>
+      </c>
+      <c r="E336" s="1"/>
+      <c r="K336" s="3">
+        <v>133.33333333333331</v>
+      </c>
+      <c r="L336" s="3">
+        <v>0.70874999999999999</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>24</v>
+      </c>
+      <c r="B337" s="1">
+        <v>45470</v>
+      </c>
+      <c r="E337" s="1"/>
+      <c r="K337" s="3">
+        <v>135.41666666666666</v>
+      </c>
+      <c r="L337" s="3">
+        <v>0.72249999999999992</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>24</v>
+      </c>
+      <c r="B338" s="1">
+        <v>45477</v>
+      </c>
+      <c r="E338" s="1"/>
+      <c r="K338" s="3">
+        <v>161.25</v>
+      </c>
+      <c r="L338" s="3">
+        <v>0.73375000000000001</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>24</v>
+      </c>
+      <c r="B339" s="1">
+        <v>45482</v>
+      </c>
+      <c r="E339" s="1"/>
+      <c r="K339" s="3">
+        <v>162.08333333333331</v>
+      </c>
+      <c r="L339" s="3">
+        <v>0.71124999999999994</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>24</v>
+      </c>
+      <c r="B340" s="1">
+        <v>45492</v>
+      </c>
+      <c r="E340" s="1"/>
+      <c r="K340" s="3">
+        <v>187.08333333333331</v>
+      </c>
+      <c r="L340" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>24</v>
+      </c>
+      <c r="B341" s="1">
+        <v>45498</v>
+      </c>
+      <c r="E341" s="1"/>
+      <c r="K341" s="3">
+        <v>230.83333333333331</v>
+      </c>
+      <c r="L341" s="3">
+        <v>0.76500000000000001</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>24</v>
+      </c>
+      <c r="B342" s="1">
+        <v>45506</v>
+      </c>
+      <c r="E342" s="1"/>
+      <c r="K342" s="3">
+        <v>240.83333333333337</v>
+      </c>
+      <c r="L342" s="3">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>24</v>
+      </c>
+      <c r="B343" s="1">
+        <v>45511</v>
+      </c>
+      <c r="E343" s="1"/>
+      <c r="K343" s="3">
+        <v>263.33333333333331</v>
+      </c>
+      <c r="L343" s="3">
+        <v>0.75124999999999997</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>24</v>
+      </c>
+      <c r="B344" s="1">
+        <v>45517</v>
+      </c>
+      <c r="E344" s="1"/>
+      <c r="K344" s="3">
+        <v>304.16666666666669</v>
+      </c>
+      <c r="L344" s="3">
+        <v>0.73750000000000004</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>24</v>
+      </c>
+      <c r="B345" s="1">
+        <v>45524</v>
+      </c>
+      <c r="E345" s="1"/>
+      <c r="K345" s="3">
+        <v>339.16666666666663</v>
+      </c>
+      <c r="L345" s="3">
+        <v>0.73125000000000007</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>24</v>
+      </c>
+      <c r="B346" s="1">
+        <v>45532</v>
+      </c>
+      <c r="E346" s="1"/>
+      <c r="K346" s="3">
+        <v>355</v>
+      </c>
+      <c r="L346" s="3">
+        <v>0.73375000000000001</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>24</v>
+      </c>
+      <c r="B347" s="1">
+        <v>45541</v>
+      </c>
+      <c r="E347" s="1"/>
+      <c r="K347" s="3">
+        <v>410.83333333333326</v>
+      </c>
+      <c r="L347" s="3">
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>24</v>
+      </c>
+      <c r="B348" s="1">
+        <v>45545</v>
+      </c>
+      <c r="E348" s="1"/>
+      <c r="K348" s="3">
+        <v>428.33333333333337</v>
+      </c>
+      <c r="L348" s="3">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>25</v>
+      </c>
+      <c r="B349" s="1">
+        <v>45400</v>
+      </c>
+      <c r="E349" s="1"/>
+      <c r="K349" s="3"/>
+      <c r="L349" s="3">
+        <v>0.17125000000000001</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>25</v>
+      </c>
+      <c r="B350" s="1">
+        <v>45405</v>
+      </c>
+      <c r="E350" s="1"/>
+      <c r="K350" s="3"/>
+      <c r="L350" s="3">
+        <v>0.21625</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>25</v>
+      </c>
+      <c r="B351" s="1">
+        <v>45412</v>
+      </c>
+      <c r="E351" s="1"/>
+      <c r="K351" s="3"/>
+      <c r="L351" s="3">
+        <v>0.23875000000000002</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>25</v>
+      </c>
+      <c r="B352" s="1">
+        <v>45420</v>
+      </c>
+      <c r="E352" s="1"/>
+      <c r="K352" s="3"/>
+      <c r="L352" s="3">
+        <v>0.47749999999999998</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>25</v>
+      </c>
+      <c r="B353" s="1">
+        <v>45428</v>
+      </c>
+      <c r="K353" s="3">
+        <v>92.500000000000014</v>
+      </c>
+      <c r="L353" s="3">
+        <v>0.52124999999999999</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>25</v>
+      </c>
+      <c r="B354" s="1">
+        <v>45435</v>
+      </c>
+      <c r="K354" s="3">
+        <v>119.58333333333334</v>
+      </c>
+      <c r="L354" s="3">
+        <v>0.58499999999999996</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>25</v>
+      </c>
+      <c r="B355" s="1">
+        <v>45440</v>
+      </c>
+      <c r="K355" s="3">
+        <v>120</v>
+      </c>
+      <c r="L355" s="3">
+        <v>0.59624999999999995</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>25</v>
+      </c>
+      <c r="B356" s="1">
+        <v>45449</v>
+      </c>
+      <c r="K356" s="3">
+        <v>131.25</v>
+      </c>
+      <c r="L356" s="3">
+        <v>0.61499999999999999</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>25</v>
+      </c>
+      <c r="B357" s="1">
+        <v>45455</v>
+      </c>
+      <c r="K357" s="3">
+        <v>125.83333333333334</v>
+      </c>
+      <c r="L357" s="3">
+        <v>0.69750000000000001</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>25</v>
+      </c>
+      <c r="B358" s="1">
+        <v>45463</v>
+      </c>
+      <c r="K358" s="3">
+        <v>137.91666666666666</v>
+      </c>
+      <c r="L358" s="3">
+        <v>0.72750000000000004</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>25</v>
+      </c>
+      <c r="B359" s="1">
+        <v>45470</v>
+      </c>
+      <c r="K359" s="3">
+        <v>146.24999999999997</v>
+      </c>
+      <c r="L359" s="3">
+        <v>0.74374999999999991</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>25</v>
+      </c>
+      <c r="B360" s="1">
+        <v>45477</v>
+      </c>
+      <c r="K360" s="3">
+        <v>172.08333333333337</v>
+      </c>
+      <c r="L360" s="3">
+        <v>0.74249999999999994</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>25</v>
+      </c>
+      <c r="B361" s="1">
+        <v>45482</v>
+      </c>
+      <c r="K361" s="3">
+        <v>171.25</v>
+      </c>
+      <c r="L361" s="3">
+        <v>0.73499999999999999</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>25</v>
+      </c>
+      <c r="B362" s="1">
+        <v>45492</v>
+      </c>
+      <c r="K362" s="3">
+        <v>210.41666666666663</v>
+      </c>
+      <c r="L362" s="3">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>25</v>
+      </c>
+      <c r="B363" s="1">
+        <v>45498</v>
+      </c>
+      <c r="K363" s="3">
+        <v>251.25</v>
+      </c>
+      <c r="L363" s="3">
+        <v>0.7712500000000001</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>25</v>
+      </c>
+      <c r="B364" s="1">
+        <v>45506</v>
+      </c>
+      <c r="K364" s="3">
+        <v>275</v>
+      </c>
+      <c r="L364" s="3">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>25</v>
+      </c>
+      <c r="B365" s="1">
+        <v>45511</v>
+      </c>
+      <c r="K365" s="3">
+        <v>310.83333333333337</v>
+      </c>
+      <c r="L365" s="3">
+        <v>0.77750000000000008</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>25</v>
+      </c>
+      <c r="B366" s="1">
+        <v>45517</v>
+      </c>
+      <c r="K366" s="3">
+        <v>348.33333333333337</v>
+      </c>
+      <c r="L366" s="3">
+        <v>0.75624999999999987</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>25</v>
+      </c>
+      <c r="B367" s="1">
+        <v>45524</v>
+      </c>
+      <c r="K367" s="3">
+        <v>376.66666666666663</v>
+      </c>
+      <c r="L367" s="3">
+        <v>0.76500000000000001</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>25</v>
+      </c>
+      <c r="B368" s="1">
+        <v>45532</v>
+      </c>
+      <c r="K368" s="3">
+        <v>394.16666666666663</v>
+      </c>
+      <c r="L368" s="3">
+        <v>0.76249999999999996</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>25</v>
+      </c>
+      <c r="B369" s="1">
+        <v>45541</v>
+      </c>
+      <c r="K369" s="3">
+        <v>474.16666666666663</v>
+      </c>
+      <c r="L369" s="3">
+        <v>0.76750000000000007</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>25</v>
+      </c>
+      <c r="B370" s="1">
+        <v>45545</v>
+      </c>
+      <c r="K370" s="3">
+        <v>505</v>
+      </c>
+      <c r="L370" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>26</v>
+      </c>
+      <c r="B371" s="1">
+        <v>45400</v>
+      </c>
+      <c r="K371" s="3"/>
+      <c r="L371" s="3">
+        <v>0.16125</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>26</v>
+      </c>
+      <c r="B372" s="1">
+        <v>45405</v>
+      </c>
+      <c r="K372" s="3"/>
+      <c r="L372" s="3">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>26</v>
+      </c>
+      <c r="B373" s="1">
+        <v>45412</v>
+      </c>
+      <c r="K373" s="3"/>
+      <c r="L373" s="3">
+        <v>0.21375</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>26</v>
+      </c>
+      <c r="B374" s="1">
+        <v>45420</v>
+      </c>
+      <c r="K374" s="3"/>
+      <c r="L374" s="3">
+        <v>0.45249999999999996</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>26</v>
+      </c>
+      <c r="B375" s="1">
+        <v>45428</v>
+      </c>
+      <c r="K375" s="3">
+        <v>97.083333333333314</v>
+      </c>
+      <c r="L375" s="3">
+        <v>0.49374999999999991</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>26</v>
+      </c>
+      <c r="B376" s="1">
+        <v>45435</v>
+      </c>
+      <c r="K376" s="3">
+        <v>108.33333333333334</v>
+      </c>
+      <c r="L376" s="3">
+        <v>0.54249999999999998</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>26</v>
+      </c>
+      <c r="B377" s="1">
+        <v>45440</v>
+      </c>
+      <c r="K377" s="3">
+        <v>119.83333333333334</v>
+      </c>
+      <c r="L377" s="3">
+        <v>0.56499999999999995</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>26</v>
+      </c>
+      <c r="B378" s="1">
+        <v>45449</v>
+      </c>
+      <c r="K378" s="3">
+        <v>125.41666666666666</v>
+      </c>
+      <c r="L378" s="3">
+        <v>0.60125000000000006</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>26</v>
+      </c>
+      <c r="B379" s="1">
+        <v>45455</v>
+      </c>
+      <c r="K379" s="3">
+        <v>124.16666666666666</v>
+      </c>
+      <c r="L379" s="3">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>26</v>
+      </c>
+      <c r="B380" s="1">
+        <v>45463</v>
+      </c>
+      <c r="K380" s="3">
+        <v>136.66666666666666</v>
+      </c>
+      <c r="L380" s="3">
+        <v>0.70374999999999999</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>26</v>
+      </c>
+      <c r="B381" s="1">
+        <v>45470</v>
+      </c>
+      <c r="K381" s="3">
+        <v>145.83333333333334</v>
+      </c>
+      <c r="L381" s="3">
+        <v>0.73749999999999993</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>26</v>
+      </c>
+      <c r="B382" s="1">
+        <v>45477</v>
+      </c>
+      <c r="K382" s="3">
+        <v>167.91666666666669</v>
+      </c>
+      <c r="L382" s="3">
+        <v>0.74375000000000002</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>26</v>
+      </c>
+      <c r="B383" s="1">
+        <v>45482</v>
+      </c>
+      <c r="K383" s="3">
+        <v>170.83333333333337</v>
+      </c>
+      <c r="L383" s="3">
+        <v>0.7337499999999999</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>26</v>
+      </c>
+      <c r="B384" s="1">
+        <v>45492</v>
+      </c>
+      <c r="K384" s="3">
+        <v>212.5</v>
+      </c>
+      <c r="L384" s="3">
+        <v>0.77625</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>26</v>
+      </c>
+      <c r="B385" s="1">
+        <v>45498</v>
+      </c>
+      <c r="K385" s="3">
+        <v>242.08333333333331</v>
+      </c>
+      <c r="L385" s="3">
+        <v>0.78625000000000012</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>26</v>
+      </c>
+      <c r="B386" s="1">
+        <v>45506</v>
+      </c>
+      <c r="K386" s="3">
+        <v>276.66666666666663</v>
+      </c>
+      <c r="L386" s="3">
+        <v>0.72750000000000004</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>26</v>
+      </c>
+      <c r="B387" s="1">
+        <v>45511</v>
+      </c>
+      <c r="K387" s="3">
+        <v>307.91666666666663</v>
+      </c>
+      <c r="L387" s="3">
+        <v>0.79374999999999996</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>26</v>
+      </c>
+      <c r="B388" s="1">
+        <v>45517</v>
+      </c>
+      <c r="K388" s="3">
+        <v>355</v>
+      </c>
+      <c r="L388" s="3">
+        <v>0.78499999999999992</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>26</v>
+      </c>
+      <c r="B389" s="1">
+        <v>45524</v>
+      </c>
+      <c r="K389" s="3">
+        <v>392.5</v>
+      </c>
+      <c r="L389" s="3">
+        <v>0.78625</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>26</v>
+      </c>
+      <c r="B390" s="1">
+        <v>45532</v>
+      </c>
+      <c r="K390" s="3">
+        <v>418.33333333333337</v>
+      </c>
+      <c r="L390" s="3">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>26</v>
+      </c>
+      <c r="B391" s="1">
+        <v>45541</v>
+      </c>
+      <c r="K391" s="3">
+        <v>489.16666666666663</v>
+      </c>
+      <c r="L391" s="3">
+        <v>0.81499999999999995</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>26</v>
+      </c>
+      <c r="B392" s="1">
+        <v>45545</v>
+      </c>
+      <c r="K392" s="3">
+        <v>531.66666666666663</v>
+      </c>
+      <c r="L392" s="3">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>27</v>
+      </c>
+      <c r="B393" s="1">
+        <v>45400</v>
+      </c>
+      <c r="K393" s="3"/>
+      <c r="L393" s="3">
+        <v>0.17249999999999999</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>27</v>
+      </c>
+      <c r="B394" s="1">
+        <v>45405</v>
+      </c>
+      <c r="K394" s="3"/>
+      <c r="L394" s="3">
+        <v>0.22499999999999998</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>27</v>
+      </c>
+      <c r="B395" s="1">
+        <v>45412</v>
+      </c>
+      <c r="K395" s="3"/>
+      <c r="L395" s="3">
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>27</v>
+      </c>
+      <c r="B396" s="1">
+        <v>45420</v>
+      </c>
+      <c r="K396" s="3"/>
+      <c r="L396" s="3">
+        <v>0.4975</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>27</v>
+      </c>
+      <c r="B397" s="1">
+        <v>45428</v>
+      </c>
+      <c r="E397" s="1"/>
+      <c r="K397" s="3">
+        <v>97.916666666666657</v>
+      </c>
+      <c r="L397" s="3">
+        <v>0.54500000000000004</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>27</v>
+      </c>
+      <c r="B398" s="1">
+        <v>45435</v>
+      </c>
+      <c r="E398" s="1"/>
+      <c r="K398" s="3">
+        <v>113.75</v>
+      </c>
+      <c r="L398" s="3">
+        <v>0.61624999999999996</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>27</v>
+      </c>
+      <c r="B399" s="1">
+        <v>45440</v>
+      </c>
+      <c r="E399" s="1"/>
+      <c r="K399" s="3">
+        <v>120.41666666666666</v>
+      </c>
+      <c r="L399" s="3">
+        <v>0.61124999999999996</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>27</v>
+      </c>
+      <c r="B400" s="1">
+        <v>45449</v>
+      </c>
+      <c r="E400" s="1"/>
+      <c r="K400" s="3">
+        <v>131.25</v>
+      </c>
+      <c r="L400" s="3">
+        <v>0.62375000000000003</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>27</v>
+      </c>
+      <c r="B401" s="1">
+        <v>45455</v>
+      </c>
+      <c r="E401" s="1"/>
+      <c r="K401" s="3">
+        <v>127.91666666666666</v>
+      </c>
+      <c r="L401" s="3">
+        <v>0.71500000000000008</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>27</v>
+      </c>
+      <c r="B402" s="1">
+        <v>45463</v>
+      </c>
+      <c r="E402" s="1"/>
+      <c r="K402" s="3">
+        <v>140.41666666666666</v>
+      </c>
+      <c r="L402" s="3">
+        <v>0.73375000000000001</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>27</v>
+      </c>
+      <c r="B403" s="1">
+        <v>45470</v>
+      </c>
+      <c r="E403" s="1"/>
+      <c r="K403" s="3">
+        <v>151.25</v>
+      </c>
+      <c r="L403" s="3">
+        <v>0.76375000000000004</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>27</v>
+      </c>
+      <c r="B404" s="1">
+        <v>45477</v>
+      </c>
+      <c r="E404" s="1"/>
+      <c r="K404" s="3">
+        <v>181.25</v>
+      </c>
+      <c r="L404" s="3">
+        <v>0.75749999999999995</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>27</v>
+      </c>
+      <c r="B405" s="1">
+        <v>45482</v>
+      </c>
+      <c r="E405" s="1"/>
+      <c r="K405" s="3">
+        <v>175.41666666666663</v>
+      </c>
+      <c r="L405" s="3">
+        <v>0.74874999999999992</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>27</v>
+      </c>
+      <c r="B406" s="1">
+        <v>45492</v>
+      </c>
+      <c r="E406" s="1"/>
+      <c r="K406" s="3">
+        <v>233.33333333333331</v>
+      </c>
+      <c r="L406" s="3">
+        <v>0.79375000000000007</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>27</v>
+      </c>
+      <c r="B407" s="1">
+        <v>45498</v>
+      </c>
+      <c r="E407" s="1"/>
+      <c r="K407" s="3">
+        <v>262.08333333333331</v>
+      </c>
+      <c r="L407" s="3">
+        <v>0.79249999999999998</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>27</v>
+      </c>
+      <c r="B408" s="1">
+        <v>45506</v>
+      </c>
+      <c r="E408" s="1"/>
+      <c r="K408" s="3">
+        <v>306.66666666666669</v>
+      </c>
+      <c r="L408" s="3">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>27</v>
+      </c>
+      <c r="B409" s="1">
+        <v>45511</v>
+      </c>
+      <c r="E409" s="1"/>
+      <c r="K409" s="3">
+        <v>345.41666666666663</v>
+      </c>
+      <c r="L409" s="3">
+        <v>0.7975000000000001</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>27</v>
+      </c>
+      <c r="B410" s="1">
+        <v>45517</v>
+      </c>
+      <c r="E410" s="1"/>
+      <c r="K410" s="3">
+        <v>379.16666666666663</v>
+      </c>
+      <c r="L410" s="3">
+        <v>0.78625</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>27</v>
+      </c>
+      <c r="B411" s="1">
+        <v>45524</v>
+      </c>
+      <c r="E411" s="1"/>
+      <c r="K411" s="3">
+        <v>423.33333333333326</v>
+      </c>
+      <c r="L411" s="3">
+        <v>0.80500000000000016</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>27</v>
+      </c>
+      <c r="B412" s="1">
+        <v>45532</v>
+      </c>
+      <c r="E412" s="1"/>
+      <c r="K412" s="3">
+        <v>454.16666666666663</v>
+      </c>
+      <c r="L412" s="3">
+        <v>0.80875000000000008</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>27</v>
+      </c>
+      <c r="B413" s="1">
+        <v>45541</v>
+      </c>
+      <c r="E413" s="1"/>
+      <c r="K413" s="3">
+        <v>520.83333333333337</v>
+      </c>
+      <c r="L413" s="3">
+        <v>0.82000000000000006</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>27</v>
+      </c>
+      <c r="B414" s="1">
+        <v>45545</v>
+      </c>
+      <c r="E414" s="1"/>
+      <c r="K414" s="3">
+        <v>542.5</v>
+      </c>
+      <c r="L414" s="3">
+        <v>0.83250000000000002</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>20</v>
+      </c>
+      <c r="B415" s="1">
+        <v>45428</v>
+      </c>
+      <c r="K415" s="3">
+        <v>85.083333333333329</v>
+      </c>
+      <c r="L415" s="3">
+        <v>0.14874999999999999</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>20</v>
+      </c>
+      <c r="B416" s="1">
+        <v>45435</v>
+      </c>
+      <c r="K416" s="3">
+        <v>103.33333333333334</v>
+      </c>
+      <c r="L416" s="3">
+        <v>0.20624999999999999</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>20</v>
+      </c>
+      <c r="B417" s="1">
+        <v>45440</v>
+      </c>
+      <c r="K417" s="3">
+        <v>96.249999999999986</v>
+      </c>
+      <c r="L417" s="3">
+        <v>0.21875</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>20</v>
+      </c>
+      <c r="B418" s="1">
+        <v>45449</v>
+      </c>
+      <c r="K418" s="3">
+        <v>94.166666666666657</v>
+      </c>
+      <c r="L418" s="3">
+        <v>0.21000000000000002</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>20</v>
+      </c>
+      <c r="B419" s="1">
+        <v>45455</v>
+      </c>
+      <c r="K419" s="3">
+        <v>92.083333333333343</v>
+      </c>
+      <c r="L419" s="3">
+        <v>0.24875</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>20</v>
+      </c>
+      <c r="B420" s="1">
+        <v>45463</v>
+      </c>
+      <c r="K420" s="3">
+        <v>93.75</v>
+      </c>
+      <c r="L420" s="3">
+        <v>0.28625</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>20</v>
+      </c>
+      <c r="B421" s="1">
+        <v>45470</v>
+      </c>
+      <c r="K421" s="3">
+        <v>89.166666666666657</v>
+      </c>
+      <c r="L421" s="3">
+        <v>0.29500000000000004</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>20</v>
+      </c>
+      <c r="B422" s="1">
+        <v>45477</v>
+      </c>
+      <c r="K422" s="3">
+        <v>94.166666666666657</v>
+      </c>
+      <c r="L422" s="3">
+        <v>0.3075</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>20</v>
+      </c>
+      <c r="B423" s="1">
+        <v>45482</v>
+      </c>
+      <c r="K423" s="3">
+        <v>97.5</v>
+      </c>
+      <c r="L423" s="3">
+        <v>0.32750000000000001</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>20</v>
+      </c>
+      <c r="B424" s="1">
+        <v>45492</v>
+      </c>
+      <c r="K424" s="3">
+        <v>105</v>
+      </c>
+      <c r="L424" s="3">
+        <v>0.38875000000000004</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>20</v>
+      </c>
+      <c r="B425" s="1">
+        <v>45498</v>
+      </c>
+      <c r="K425" s="3">
+        <v>107.91666666666666</v>
+      </c>
+      <c r="L425" s="3">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>20</v>
+      </c>
+      <c r="B426" s="1">
+        <v>45506</v>
+      </c>
+      <c r="K426" s="3">
+        <v>115.00000000000001</v>
+      </c>
+      <c r="L426" s="3">
+        <v>0.44750000000000001</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>20</v>
+      </c>
+      <c r="B427" s="1">
+        <v>45511</v>
+      </c>
+      <c r="K427" s="3">
+        <v>106.66666666666666</v>
+      </c>
+      <c r="L427" s="3">
+        <v>0.45999999999999996</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>20</v>
+      </c>
+      <c r="B428" s="1">
+        <v>45517</v>
+      </c>
+      <c r="K428" s="3">
+        <v>118.33333333333331</v>
+      </c>
+      <c r="L428" s="3">
+        <v>0.50875000000000004</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>20</v>
+      </c>
+      <c r="B429" s="1">
+        <v>45524</v>
+      </c>
+      <c r="K429" s="3">
+        <v>155</v>
+      </c>
+      <c r="L429" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>20</v>
+      </c>
+      <c r="B430" s="1">
+        <v>45532</v>
+      </c>
+      <c r="K430" s="3">
+        <v>210</v>
+      </c>
+      <c r="L430" s="3">
+        <v>0.61875000000000002</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>20</v>
+      </c>
+      <c r="B431" s="1">
+        <v>45541</v>
+      </c>
+      <c r="K431" s="3">
+        <v>279.16666666666669</v>
+      </c>
+      <c r="L431" s="3">
+        <v>0.66874999999999996</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>20</v>
+      </c>
+      <c r="B432" s="1">
+        <v>45545</v>
+      </c>
+      <c r="K432" s="3">
+        <v>295</v>
+      </c>
+      <c r="L432" s="3">
+        <v>0.69124999999999992</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>21</v>
+      </c>
+      <c r="B433" s="1">
+        <v>45428</v>
+      </c>
+      <c r="K433" s="3">
+        <v>89</v>
+      </c>
+      <c r="L433" s="3">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>21</v>
+      </c>
+      <c r="B434" s="1">
+        <v>45435</v>
+      </c>
+      <c r="K434" s="3">
+        <v>101.66666666666666</v>
+      </c>
+      <c r="L434" s="3">
+        <v>0.21500000000000002</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>21</v>
+      </c>
+      <c r="B435" s="1">
+        <v>45440</v>
+      </c>
+      <c r="K435" s="3">
+        <v>96.666666666666657</v>
+      </c>
+      <c r="L435" s="3">
+        <v>0.22499999999999998</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>21</v>
+      </c>
+      <c r="B436" s="1">
+        <v>45449</v>
+      </c>
+      <c r="K436" s="3">
+        <v>99.166666666666657</v>
+      </c>
+      <c r="L436" s="3">
+        <v>0.20874999999999999</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>21</v>
+      </c>
+      <c r="B437" s="1">
+        <v>45455</v>
+      </c>
+      <c r="K437" s="3">
+        <v>92.083333333333314</v>
+      </c>
+      <c r="L437" s="3">
+        <v>0.25750000000000001</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>21</v>
+      </c>
+      <c r="B438" s="1">
+        <v>45463</v>
+      </c>
+      <c r="K438" s="3">
+        <v>89.583333333333343</v>
+      </c>
+      <c r="L438" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>21</v>
+      </c>
+      <c r="B439" s="1">
+        <v>45470</v>
+      </c>
+      <c r="K439" s="3">
+        <v>92.5</v>
+      </c>
+      <c r="L439" s="3">
+        <v>0.29625000000000001</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>21</v>
+      </c>
+      <c r="B440" s="1">
+        <v>45477</v>
+      </c>
+      <c r="K440" s="3">
+        <v>92.916666666666657</v>
+      </c>
+      <c r="L440" s="3">
+        <v>0.31125000000000003</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>21</v>
+      </c>
+      <c r="B441" s="1">
+        <v>45482</v>
+      </c>
+      <c r="K441" s="3">
+        <v>97.916666666666657</v>
+      </c>
+      <c r="L441" s="3">
+        <v>0.34875</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>21</v>
+      </c>
+      <c r="B442" s="1">
+        <v>45492</v>
+      </c>
+      <c r="K442" s="3">
+        <v>93.749999999999986</v>
+      </c>
+      <c r="L442" s="3">
+        <v>0.41124999999999995</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>21</v>
+      </c>
+      <c r="B443" s="1">
+        <v>45498</v>
+      </c>
+      <c r="K443" s="3">
+        <v>105.41666666666666</v>
+      </c>
+      <c r="L443" s="3">
+        <v>0.44500000000000006</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>21</v>
+      </c>
+      <c r="B444" s="1">
+        <v>45506</v>
+      </c>
+      <c r="K444" s="3">
+        <v>107.91666666666666</v>
+      </c>
+      <c r="L444" s="3">
+        <v>0.46625000000000005</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>21</v>
+      </c>
+      <c r="B445" s="1">
+        <v>45511</v>
+      </c>
+      <c r="K445" s="3">
+        <v>102.5</v>
+      </c>
+      <c r="L445" s="3">
+        <v>0.50624999999999998</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>21</v>
+      </c>
+      <c r="B446" s="1">
+        <v>45517</v>
+      </c>
+      <c r="K446" s="3">
+        <v>127.5</v>
+      </c>
+      <c r="L446" s="3">
+        <v>0.55249999999999999</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>21</v>
+      </c>
+      <c r="B447" s="1">
+        <v>45524</v>
+      </c>
+      <c r="K447" s="3">
+        <v>149.16666666666666</v>
+      </c>
+      <c r="L447" s="3">
+        <v>0.5774999999999999</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>21</v>
+      </c>
+      <c r="B448" s="1">
+        <v>45532</v>
+      </c>
+      <c r="K448" s="3">
+        <v>210</v>
+      </c>
+      <c r="L448" s="3">
+        <v>0.64500000000000002</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>21</v>
+      </c>
+      <c r="B449" s="1">
+        <v>45541</v>
+      </c>
+      <c r="K449" s="3">
+        <v>270</v>
+      </c>
+      <c r="L449" s="3">
+        <v>0.66625000000000001</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>21</v>
+      </c>
+      <c r="B450" s="1">
+        <v>45545</v>
+      </c>
+      <c r="K450" s="3">
+        <v>296.66666666666669</v>
+      </c>
+      <c r="L450" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>22</v>
+      </c>
+      <c r="B451" s="1">
+        <v>45428</v>
+      </c>
+      <c r="K451" s="3">
+        <v>86.916666666666657</v>
+      </c>
+      <c r="L451" s="3">
+        <v>0.15125</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>22</v>
+      </c>
+      <c r="B452" s="1">
+        <v>45435</v>
+      </c>
+      <c r="K452" s="3">
+        <v>104.16666666666669</v>
+      </c>
+      <c r="L452" s="3">
+        <v>0.20750000000000002</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>22</v>
+      </c>
+      <c r="B453" s="1">
+        <v>45440</v>
+      </c>
+      <c r="K453" s="3">
+        <v>95.833333333333343</v>
+      </c>
+      <c r="L453" s="3">
+        <v>0.22124999999999997</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>22</v>
+      </c>
+      <c r="B454" s="1">
+        <v>45449</v>
+      </c>
+      <c r="K454" s="3">
+        <v>95.166666666666657</v>
+      </c>
+      <c r="L454" s="3">
+        <v>0.21250000000000002</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>22</v>
+      </c>
+      <c r="B455" s="1">
+        <v>45455</v>
+      </c>
+      <c r="K455" s="3">
+        <v>91.666666666666657</v>
+      </c>
+      <c r="L455" s="3">
+        <v>0.25875000000000004</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>22</v>
+      </c>
+      <c r="B456" s="1">
+        <v>45463</v>
+      </c>
+      <c r="K456" s="3">
+        <v>94.583333333333343</v>
+      </c>
+      <c r="L456" s="3">
+        <v>0.27750000000000002</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>22</v>
+      </c>
+      <c r="B457" s="1">
+        <v>45470</v>
+      </c>
+      <c r="K457" s="3">
+        <v>95</v>
+      </c>
+      <c r="L457" s="3">
+        <v>0.29250000000000004</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>22</v>
+      </c>
+      <c r="B458" s="1">
+        <v>45477</v>
+      </c>
+      <c r="K458" s="3">
+        <v>97.083333333333343</v>
+      </c>
+      <c r="L458" s="3">
+        <v>0.31375000000000003</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>22</v>
+      </c>
+      <c r="B459" s="1">
+        <v>45482</v>
+      </c>
+      <c r="K459" s="3">
+        <v>96.666666666666657</v>
+      </c>
+      <c r="L459" s="3">
+        <v>0.33875</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>22</v>
+      </c>
+      <c r="B460" s="1">
+        <v>45492</v>
+      </c>
+      <c r="K460" s="3">
+        <v>103.74999999999999</v>
+      </c>
+      <c r="L460" s="3">
+        <v>0.41000000000000003</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>22</v>
+      </c>
+      <c r="B461" s="1">
+        <v>45498</v>
+      </c>
+      <c r="K461" s="3">
+        <v>106.66666666666669</v>
+      </c>
+      <c r="L461" s="3">
+        <v>0.45499999999999996</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>22</v>
+      </c>
+      <c r="B462" s="1">
+        <v>45506</v>
+      </c>
+      <c r="K462" s="3">
+        <v>115.41666666666666</v>
+      </c>
+      <c r="L462" s="3">
+        <v>0.48875000000000002</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>22</v>
+      </c>
+      <c r="B463" s="1">
+        <v>45511</v>
+      </c>
+      <c r="K463" s="3">
+        <v>105</v>
+      </c>
+      <c r="L463" s="3">
+        <v>0.50875000000000004</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>22</v>
+      </c>
+      <c r="B464" s="1">
+        <v>45517</v>
+      </c>
+      <c r="K464" s="3">
+        <v>125.83333333333334</v>
+      </c>
+      <c r="L464" s="3">
+        <v>0.55874999999999997</v>
+      </c>
+    </row>
+    <row r="465" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>22</v>
+      </c>
+      <c r="B465" s="1">
+        <v>45524</v>
+      </c>
+      <c r="K465" s="3">
+        <v>165.83333333333337</v>
+      </c>
+      <c r="L465" s="3">
+        <v>0.58499999999999996</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>22</v>
+      </c>
+      <c r="B466" s="1">
+        <v>45532</v>
+      </c>
+      <c r="K466" s="3">
+        <v>224.16666666666669</v>
+      </c>
+      <c r="L466" s="3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="467" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>22</v>
+      </c>
+      <c r="B467" s="1">
+        <v>45541</v>
+      </c>
+      <c r="K467" s="3">
+        <v>297.49999999999994</v>
+      </c>
+      <c r="L467" s="3">
+        <v>0.6825</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>22</v>
+      </c>
+      <c r="B468" s="1">
+        <v>45545</v>
+      </c>
+      <c r="K468" s="3">
+        <v>337.5</v>
+      </c>
+      <c r="L468" s="3">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="469" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>23</v>
+      </c>
+      <c r="B469" s="1">
+        <v>45428</v>
+      </c>
+      <c r="K469" s="3">
+        <v>87</v>
+      </c>
+      <c r="L469" s="3">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="470" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>23</v>
+      </c>
+      <c r="B470" s="1">
+        <v>45435</v>
+      </c>
+      <c r="K470" s="3">
+        <v>102.08333333333334</v>
+      </c>
+      <c r="L470" s="3">
+        <v>0.21249999999999999</v>
+      </c>
+    </row>
+    <row r="471" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>23</v>
+      </c>
+      <c r="B471" s="1">
+        <v>45440</v>
+      </c>
+      <c r="K471" s="3">
+        <v>98.333333333333343</v>
+      </c>
+      <c r="L471" s="3">
+        <v>0.22375</v>
+      </c>
+    </row>
+    <row r="472" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>23</v>
+      </c>
+      <c r="B472" s="1">
+        <v>45449</v>
+      </c>
+      <c r="K472" s="3">
+        <v>95</v>
+      </c>
+      <c r="L472" s="3">
+        <v>0.20875000000000005</v>
+      </c>
+    </row>
+    <row r="473" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>23</v>
+      </c>
+      <c r="B473" s="1">
+        <v>45455</v>
+      </c>
+      <c r="K473" s="3">
+        <v>90.833333333333314</v>
+      </c>
+      <c r="L473" s="3">
+        <v>0.26250000000000001</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>23</v>
+      </c>
+      <c r="B474" s="1">
+        <v>45463</v>
+      </c>
+      <c r="K474" s="3">
+        <v>91.25</v>
+      </c>
+      <c r="L474" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="475" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>23</v>
+      </c>
+      <c r="B475" s="1">
+        <v>45470</v>
+      </c>
+      <c r="K475" s="3">
+        <v>95</v>
+      </c>
+      <c r="L475" s="3">
+        <v>0.28250000000000003</v>
+      </c>
+    </row>
+    <row r="476" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>23</v>
+      </c>
+      <c r="B476" s="1">
+        <v>45477</v>
+      </c>
+      <c r="K476" s="3">
+        <v>94.166666666666657</v>
+      </c>
+      <c r="L476" s="3">
+        <v>0.31000000000000005</v>
+      </c>
+    </row>
+    <row r="477" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>23</v>
+      </c>
+      <c r="B477" s="1">
+        <v>45482</v>
+      </c>
+      <c r="K477" s="3">
+        <v>95.833333333333343</v>
+      </c>
+      <c r="L477" s="3">
+        <v>0.34624999999999995</v>
+      </c>
+    </row>
+    <row r="478" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>23</v>
+      </c>
+      <c r="B478" s="1">
+        <v>45492</v>
+      </c>
+      <c r="K478" s="3">
+        <v>102.91666666666669</v>
+      </c>
+      <c r="L478" s="3">
+        <v>0.41500000000000004</v>
+      </c>
+    </row>
+    <row r="479" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>23</v>
+      </c>
+      <c r="B479" s="1">
+        <v>45498</v>
+      </c>
+      <c r="K479" s="3">
+        <v>105.41666666666669</v>
+      </c>
+      <c r="L479" s="3">
+        <v>0.45874999999999999</v>
+      </c>
+    </row>
+    <row r="480" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>23</v>
+      </c>
+      <c r="B480" s="1">
+        <v>45506</v>
+      </c>
+      <c r="K480" s="3">
+        <v>115</v>
+      </c>
+      <c r="L480" s="3">
+        <v>0.49249999999999999</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>23</v>
+      </c>
+      <c r="B481" s="1">
+        <v>45511</v>
+      </c>
+      <c r="K481" s="3">
+        <v>102.08333333333334</v>
+      </c>
+      <c r="L481" s="3">
+        <v>0.52249999999999996</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>23</v>
+      </c>
+      <c r="B482" s="1">
+        <v>45517</v>
+      </c>
+      <c r="K482" s="3">
+        <v>132.5</v>
+      </c>
+      <c r="L482" s="3">
+        <v>0.58125000000000004</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>23</v>
+      </c>
+      <c r="B483" s="1">
+        <v>45524</v>
+      </c>
+      <c r="K483" s="3">
+        <v>161.66666666666663</v>
+      </c>
+      <c r="L483" s="3">
+        <v>0.59749999999999992</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>23</v>
+      </c>
+      <c r="B484" s="1">
+        <v>45532</v>
+      </c>
+      <c r="K484" s="3">
+        <v>218.33333333333331</v>
+      </c>
+      <c r="L484" s="3">
+        <v>0.67625000000000002</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>23</v>
+      </c>
+      <c r="B485" s="1">
+        <v>45541</v>
+      </c>
+      <c r="K485" s="3">
+        <v>303.33333333333337</v>
+      </c>
+      <c r="L485" s="3">
+        <v>0.69750000000000001</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>23</v>
+      </c>
+      <c r="B486" s="1">
+        <v>45545</v>
+      </c>
+      <c r="K486" s="3">
+        <v>346.66666666666663</v>
+      </c>
+      <c r="L486" s="3">
+        <v>0.74124999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -1034,20 +7109,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="322cff4d-e128-4275-8c17-01ea60ce9850" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="322cff4d-e128-4275-8c17-01ea60ce9850" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1304,6 +7379,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{565FE936-45C1-4267-BB01-0C6ECA531FFF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3709C4F5-F4CD-4825-B22E-AD384DC6F7E6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1316,14 +7399,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{565FE936-45C1-4267-BB01-0C6ECA531FFF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
